--- a/artifact/data/ws-01.data.xlsx
+++ b/artifact/data/ws-01.data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C0E4B-660D-794D-9591-AFE008C21512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="20480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -53,40 +54,40 @@
     <t>true</t>
   </si>
   <si>
-    <t>sentry.pollWaitMs</t>
-  </si>
-  <si>
     <t>800</t>
-  </si>
-  <si>
-    <t>sentry.textDelim</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>sentry.scope.iteration</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>sentry.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>sentry.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>sentry.failFast</t>
-  </si>
-  <si>
-    <t>sentry.verbose</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
+  <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
+    <t>nexial.delayBetweenStepsMs</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>nexial.verbose</t>
   </si>
 </sst>
 </file>
@@ -215,7 +216,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -278,6 +279,71 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -572,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -587,22 +651,1420 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
       <c r="HA1" s="6"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
       <c r="HA2" s="6"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
+      <c r="UN2"/>
+      <c r="UO2"/>
+      <c r="UP2"/>
+      <c r="UQ2"/>
+      <c r="UR2"/>
+      <c r="US2"/>
+      <c r="UT2"/>
+      <c r="UU2"/>
+      <c r="UV2"/>
+      <c r="UW2"/>
+      <c r="UX2"/>
+      <c r="UY2"/>
+      <c r="UZ2"/>
+      <c r="VA2"/>
+      <c r="VB2"/>
+      <c r="VC2"/>
+      <c r="VD2"/>
+      <c r="VE2"/>
+      <c r="VF2"/>
+      <c r="VG2"/>
+      <c r="VH2"/>
+      <c r="VI2"/>
+      <c r="VJ2"/>
+      <c r="VK2"/>
+      <c r="VL2"/>
+      <c r="VM2"/>
+      <c r="VN2"/>
+      <c r="VO2"/>
+      <c r="VP2"/>
+      <c r="VQ2"/>
+      <c r="VR2"/>
+      <c r="VS2"/>
+      <c r="VT2"/>
+      <c r="VU2"/>
+      <c r="VV2"/>
+      <c r="VW2"/>
+      <c r="VX2"/>
+      <c r="VY2"/>
+      <c r="VZ2"/>
+      <c r="WA2"/>
+      <c r="WB2"/>
+      <c r="WC2"/>
+      <c r="WD2"/>
+      <c r="WE2"/>
+      <c r="WF2"/>
+      <c r="WG2"/>
+      <c r="WH2"/>
+      <c r="WI2"/>
+      <c r="WJ2"/>
+      <c r="WK2"/>
+      <c r="WL2"/>
+      <c r="WM2"/>
+      <c r="WN2"/>
+      <c r="WO2"/>
+      <c r="WP2"/>
+      <c r="WQ2"/>
+      <c r="WR2"/>
+      <c r="WS2"/>
+      <c r="WT2"/>
+      <c r="WU2"/>
+      <c r="WV2"/>
+      <c r="WW2"/>
+      <c r="WX2"/>
+      <c r="WY2"/>
+      <c r="WZ2"/>
+      <c r="XA2"/>
+      <c r="XB2"/>
+      <c r="XC2"/>
+      <c r="XD2"/>
+      <c r="XE2"/>
+      <c r="XF2"/>
+      <c r="XG2"/>
+      <c r="XH2"/>
+      <c r="XI2"/>
+      <c r="XJ2"/>
+      <c r="XK2"/>
+      <c r="XL2"/>
+      <c r="XM2"/>
+      <c r="XN2"/>
+      <c r="XO2"/>
+      <c r="XP2"/>
+      <c r="XQ2"/>
+      <c r="XR2"/>
+      <c r="XS2"/>
+      <c r="XT2"/>
+      <c r="XU2"/>
+      <c r="XV2"/>
+      <c r="XW2"/>
+      <c r="XX2"/>
+      <c r="XY2"/>
+      <c r="XZ2"/>
+      <c r="YA2"/>
+      <c r="YB2"/>
+      <c r="YC2"/>
+      <c r="YD2"/>
+      <c r="YE2"/>
+      <c r="YF2"/>
+      <c r="YG2"/>
+      <c r="YH2"/>
+      <c r="YI2"/>
+      <c r="YJ2"/>
+      <c r="YK2"/>
+      <c r="YL2"/>
+      <c r="YM2"/>
+      <c r="YN2"/>
+      <c r="YO2"/>
+      <c r="YP2"/>
+      <c r="YQ2"/>
+      <c r="YR2"/>
+      <c r="YS2"/>
+      <c r="YT2"/>
+      <c r="YU2"/>
+      <c r="YV2"/>
+      <c r="YW2"/>
+      <c r="YX2"/>
+      <c r="YY2"/>
+      <c r="YZ2"/>
+      <c r="ZA2"/>
+      <c r="ZB2"/>
+      <c r="ZC2"/>
+      <c r="ZD2"/>
+      <c r="ZE2"/>
+      <c r="ZF2"/>
+      <c r="ZG2"/>
+      <c r="ZH2"/>
+      <c r="ZI2"/>
+      <c r="ZJ2"/>
+      <c r="ZK2"/>
+      <c r="ZL2"/>
+      <c r="ZM2"/>
+      <c r="ZN2"/>
+      <c r="ZO2"/>
+      <c r="ZP2"/>
+      <c r="ZQ2"/>
+      <c r="ZR2"/>
+      <c r="ZS2"/>
+      <c r="ZT2"/>
+      <c r="ZU2"/>
+      <c r="ZV2"/>
+      <c r="ZW2"/>
+      <c r="ZX2"/>
+      <c r="ZY2"/>
+      <c r="ZZ2"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
@@ -610,49 +2072,3544 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3"/>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3"/>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3"/>
+      <c r="GP3"/>
+      <c r="GQ3"/>
+      <c r="GR3"/>
+      <c r="GS3"/>
+      <c r="GT3"/>
+      <c r="GU3"/>
+      <c r="GV3"/>
+      <c r="GW3"/>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
       <c r="HA3" s="6"/>
+      <c r="HB3"/>
+      <c r="HC3"/>
+      <c r="HD3"/>
+      <c r="HE3"/>
+      <c r="HF3"/>
+      <c r="HG3"/>
+      <c r="HH3"/>
+      <c r="HI3"/>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
+      <c r="HM3"/>
+      <c r="HN3"/>
+      <c r="HO3"/>
+      <c r="HP3"/>
+      <c r="HQ3"/>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3"/>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
+      <c r="IL3"/>
+      <c r="IM3"/>
+      <c r="IN3"/>
+      <c r="IO3"/>
+      <c r="IP3"/>
+      <c r="IQ3"/>
+      <c r="IR3"/>
+      <c r="IS3"/>
+      <c r="IT3"/>
+      <c r="IU3"/>
+      <c r="IV3"/>
+      <c r="IW3"/>
+      <c r="IX3"/>
+      <c r="IY3"/>
+      <c r="IZ3"/>
+      <c r="JA3"/>
+      <c r="JB3"/>
+      <c r="JC3"/>
+      <c r="JD3"/>
+      <c r="JE3"/>
+      <c r="JF3"/>
+      <c r="JG3"/>
+      <c r="JH3"/>
+      <c r="JI3"/>
+      <c r="JJ3"/>
+      <c r="JK3"/>
+      <c r="JL3"/>
+      <c r="JM3"/>
+      <c r="JN3"/>
+      <c r="JO3"/>
+      <c r="JP3"/>
+      <c r="JQ3"/>
+      <c r="JR3"/>
+      <c r="JS3"/>
+      <c r="JT3"/>
+      <c r="JU3"/>
+      <c r="JV3"/>
+      <c r="JW3"/>
+      <c r="JX3"/>
+      <c r="JY3"/>
+      <c r="JZ3"/>
+      <c r="KA3"/>
+      <c r="KB3"/>
+      <c r="KC3"/>
+      <c r="KD3"/>
+      <c r="KE3"/>
+      <c r="KF3"/>
+      <c r="KG3"/>
+      <c r="KH3"/>
+      <c r="KI3"/>
+      <c r="KJ3"/>
+      <c r="KK3"/>
+      <c r="KL3"/>
+      <c r="KM3"/>
+      <c r="KN3"/>
+      <c r="KO3"/>
+      <c r="KP3"/>
+      <c r="KQ3"/>
+      <c r="KR3"/>
+      <c r="KS3"/>
+      <c r="KT3"/>
+      <c r="KU3"/>
+      <c r="KV3"/>
+      <c r="KW3"/>
+      <c r="KX3"/>
+      <c r="KY3"/>
+      <c r="KZ3"/>
+      <c r="LA3"/>
+      <c r="LB3"/>
+      <c r="LC3"/>
+      <c r="LD3"/>
+      <c r="LE3"/>
+      <c r="LF3"/>
+      <c r="LG3"/>
+      <c r="LH3"/>
+      <c r="LI3"/>
+      <c r="LJ3"/>
+      <c r="LK3"/>
+      <c r="LL3"/>
+      <c r="LM3"/>
+      <c r="LN3"/>
+      <c r="LO3"/>
+      <c r="LP3"/>
+      <c r="LQ3"/>
+      <c r="LR3"/>
+      <c r="LS3"/>
+      <c r="LT3"/>
+      <c r="LU3"/>
+      <c r="LV3"/>
+      <c r="LW3"/>
+      <c r="LX3"/>
+      <c r="LY3"/>
+      <c r="LZ3"/>
+      <c r="MA3"/>
+      <c r="MB3"/>
+      <c r="MC3"/>
+      <c r="MD3"/>
+      <c r="ME3"/>
+      <c r="MF3"/>
+      <c r="MG3"/>
+      <c r="MH3"/>
+      <c r="MI3"/>
+      <c r="MJ3"/>
+      <c r="MK3"/>
+      <c r="ML3"/>
+      <c r="MM3"/>
+      <c r="MN3"/>
+      <c r="MO3"/>
+      <c r="MP3"/>
+      <c r="MQ3"/>
+      <c r="MR3"/>
+      <c r="MS3"/>
+      <c r="MT3"/>
+      <c r="MU3"/>
+      <c r="MV3"/>
+      <c r="MW3"/>
+      <c r="MX3"/>
+      <c r="MY3"/>
+      <c r="MZ3"/>
+      <c r="NA3"/>
+      <c r="NB3"/>
+      <c r="NC3"/>
+      <c r="ND3"/>
+      <c r="NE3"/>
+      <c r="NF3"/>
+      <c r="NG3"/>
+      <c r="NH3"/>
+      <c r="NI3"/>
+      <c r="NJ3"/>
+      <c r="NK3"/>
+      <c r="NL3"/>
+      <c r="NM3"/>
+      <c r="NN3"/>
+      <c r="NO3"/>
+      <c r="NP3"/>
+      <c r="NQ3"/>
+      <c r="NR3"/>
+      <c r="NS3"/>
+      <c r="NT3"/>
+      <c r="NU3"/>
+      <c r="NV3"/>
+      <c r="NW3"/>
+      <c r="NX3"/>
+      <c r="NY3"/>
+      <c r="NZ3"/>
+      <c r="OA3"/>
+      <c r="OB3"/>
+      <c r="OC3"/>
+      <c r="OD3"/>
+      <c r="OE3"/>
+      <c r="OF3"/>
+      <c r="OG3"/>
+      <c r="OH3"/>
+      <c r="OI3"/>
+      <c r="OJ3"/>
+      <c r="OK3"/>
+      <c r="OL3"/>
+      <c r="OM3"/>
+      <c r="ON3"/>
+      <c r="OO3"/>
+      <c r="OP3"/>
+      <c r="OQ3"/>
+      <c r="OR3"/>
+      <c r="OS3"/>
+      <c r="OT3"/>
+      <c r="OU3"/>
+      <c r="OV3"/>
+      <c r="OW3"/>
+      <c r="OX3"/>
+      <c r="OY3"/>
+      <c r="OZ3"/>
+      <c r="PA3"/>
+      <c r="PB3"/>
+      <c r="PC3"/>
+      <c r="PD3"/>
+      <c r="PE3"/>
+      <c r="PF3"/>
+      <c r="PG3"/>
+      <c r="PH3"/>
+      <c r="PI3"/>
+      <c r="PJ3"/>
+      <c r="PK3"/>
+      <c r="PL3"/>
+      <c r="PM3"/>
+      <c r="PN3"/>
+      <c r="PO3"/>
+      <c r="PP3"/>
+      <c r="PQ3"/>
+      <c r="PR3"/>
+      <c r="PS3"/>
+      <c r="PT3"/>
+      <c r="PU3"/>
+      <c r="PV3"/>
+      <c r="PW3"/>
+      <c r="PX3"/>
+      <c r="PY3"/>
+      <c r="PZ3"/>
+      <c r="QA3"/>
+      <c r="QB3"/>
+      <c r="QC3"/>
+      <c r="QD3"/>
+      <c r="QE3"/>
+      <c r="QF3"/>
+      <c r="QG3"/>
+      <c r="QH3"/>
+      <c r="QI3"/>
+      <c r="QJ3"/>
+      <c r="QK3"/>
+      <c r="QL3"/>
+      <c r="QM3"/>
+      <c r="QN3"/>
+      <c r="QO3"/>
+      <c r="QP3"/>
+      <c r="QQ3"/>
+      <c r="QR3"/>
+      <c r="QS3"/>
+      <c r="QT3"/>
+      <c r="QU3"/>
+      <c r="QV3"/>
+      <c r="QW3"/>
+      <c r="QX3"/>
+      <c r="QY3"/>
+      <c r="QZ3"/>
+      <c r="RA3"/>
+      <c r="RB3"/>
+      <c r="RC3"/>
+      <c r="RD3"/>
+      <c r="RE3"/>
+      <c r="RF3"/>
+      <c r="RG3"/>
+      <c r="RH3"/>
+      <c r="RI3"/>
+      <c r="RJ3"/>
+      <c r="RK3"/>
+      <c r="RL3"/>
+      <c r="RM3"/>
+      <c r="RN3"/>
+      <c r="RO3"/>
+      <c r="RP3"/>
+      <c r="RQ3"/>
+      <c r="RR3"/>
+      <c r="RS3"/>
+      <c r="RT3"/>
+      <c r="RU3"/>
+      <c r="RV3"/>
+      <c r="RW3"/>
+      <c r="RX3"/>
+      <c r="RY3"/>
+      <c r="RZ3"/>
+      <c r="SA3"/>
+      <c r="SB3"/>
+      <c r="SC3"/>
+      <c r="SD3"/>
+      <c r="SE3"/>
+      <c r="SF3"/>
+      <c r="SG3"/>
+      <c r="SH3"/>
+      <c r="SI3"/>
+      <c r="SJ3"/>
+      <c r="SK3"/>
+      <c r="SL3"/>
+      <c r="SM3"/>
+      <c r="SN3"/>
+      <c r="SO3"/>
+      <c r="SP3"/>
+      <c r="SQ3"/>
+      <c r="SR3"/>
+      <c r="SS3"/>
+      <c r="ST3"/>
+      <c r="SU3"/>
+      <c r="SV3"/>
+      <c r="SW3"/>
+      <c r="SX3"/>
+      <c r="SY3"/>
+      <c r="SZ3"/>
+      <c r="TA3"/>
+      <c r="TB3"/>
+      <c r="TC3"/>
+      <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
+      <c r="UH3"/>
+      <c r="UI3"/>
+      <c r="UJ3"/>
+      <c r="UK3"/>
+      <c r="UL3"/>
+      <c r="UM3"/>
+      <c r="UN3"/>
+      <c r="UO3"/>
+      <c r="UP3"/>
+      <c r="UQ3"/>
+      <c r="UR3"/>
+      <c r="US3"/>
+      <c r="UT3"/>
+      <c r="UU3"/>
+      <c r="UV3"/>
+      <c r="UW3"/>
+      <c r="UX3"/>
+      <c r="UY3"/>
+      <c r="UZ3"/>
+      <c r="VA3"/>
+      <c r="VB3"/>
+      <c r="VC3"/>
+      <c r="VD3"/>
+      <c r="VE3"/>
+      <c r="VF3"/>
+      <c r="VG3"/>
+      <c r="VH3"/>
+      <c r="VI3"/>
+      <c r="VJ3"/>
+      <c r="VK3"/>
+      <c r="VL3"/>
+      <c r="VM3"/>
+      <c r="VN3"/>
+      <c r="VO3"/>
+      <c r="VP3"/>
+      <c r="VQ3"/>
+      <c r="VR3"/>
+      <c r="VS3"/>
+      <c r="VT3"/>
+      <c r="VU3"/>
+      <c r="VV3"/>
+      <c r="VW3"/>
+      <c r="VX3"/>
+      <c r="VY3"/>
+      <c r="VZ3"/>
+      <c r="WA3"/>
+      <c r="WB3"/>
+      <c r="WC3"/>
+      <c r="WD3"/>
+      <c r="WE3"/>
+      <c r="WF3"/>
+      <c r="WG3"/>
+      <c r="WH3"/>
+      <c r="WI3"/>
+      <c r="WJ3"/>
+      <c r="WK3"/>
+      <c r="WL3"/>
+      <c r="WM3"/>
+      <c r="WN3"/>
+      <c r="WO3"/>
+      <c r="WP3"/>
+      <c r="WQ3"/>
+      <c r="WR3"/>
+      <c r="WS3"/>
+      <c r="WT3"/>
+      <c r="WU3"/>
+      <c r="WV3"/>
+      <c r="WW3"/>
+      <c r="WX3"/>
+      <c r="WY3"/>
+      <c r="WZ3"/>
+      <c r="XA3"/>
+      <c r="XB3"/>
+      <c r="XC3"/>
+      <c r="XD3"/>
+      <c r="XE3"/>
+      <c r="XF3"/>
+      <c r="XG3"/>
+      <c r="XH3"/>
+      <c r="XI3"/>
+      <c r="XJ3"/>
+      <c r="XK3"/>
+      <c r="XL3"/>
+      <c r="XM3"/>
+      <c r="XN3"/>
+      <c r="XO3"/>
+      <c r="XP3"/>
+      <c r="XQ3"/>
+      <c r="XR3"/>
+      <c r="XS3"/>
+      <c r="XT3"/>
+      <c r="XU3"/>
+      <c r="XV3"/>
+      <c r="XW3"/>
+      <c r="XX3"/>
+      <c r="XY3"/>
+      <c r="XZ3"/>
+      <c r="YA3"/>
+      <c r="YB3"/>
+      <c r="YC3"/>
+      <c r="YD3"/>
+      <c r="YE3"/>
+      <c r="YF3"/>
+      <c r="YG3"/>
+      <c r="YH3"/>
+      <c r="YI3"/>
+      <c r="YJ3"/>
+      <c r="YK3"/>
+      <c r="YL3"/>
+      <c r="YM3"/>
+      <c r="YN3"/>
+      <c r="YO3"/>
+      <c r="YP3"/>
+      <c r="YQ3"/>
+      <c r="YR3"/>
+      <c r="YS3"/>
+      <c r="YT3"/>
+      <c r="YU3"/>
+      <c r="YV3"/>
+      <c r="YW3"/>
+      <c r="YX3"/>
+      <c r="YY3"/>
+      <c r="YZ3"/>
+      <c r="ZA3"/>
+      <c r="ZB3"/>
+      <c r="ZC3"/>
+      <c r="ZD3"/>
+      <c r="ZE3"/>
+      <c r="ZF3"/>
+      <c r="ZG3"/>
+      <c r="ZH3"/>
+      <c r="ZI3"/>
+      <c r="ZJ3"/>
+      <c r="ZK3"/>
+      <c r="ZL3"/>
+      <c r="ZM3"/>
+      <c r="ZN3"/>
+      <c r="ZO3"/>
+      <c r="ZP3"/>
+      <c r="ZQ3"/>
+      <c r="ZR3"/>
+      <c r="ZS3"/>
+      <c r="ZT3"/>
+      <c r="ZU3"/>
+      <c r="ZV3"/>
+      <c r="ZW3"/>
+      <c r="ZX3"/>
+      <c r="ZY3"/>
+      <c r="ZZ3"/>
       <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
       <c r="HA4" s="4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
+      <c r="MK4"/>
+      <c r="ML4"/>
+      <c r="MM4"/>
+      <c r="MN4"/>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
+      <c r="MT4"/>
+      <c r="MU4"/>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
+      <c r="MZ4"/>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
+      <c r="NJ4"/>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
+      <c r="OE4"/>
+      <c r="OF4"/>
+      <c r="OG4"/>
+      <c r="OH4"/>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
+      <c r="OL4"/>
+      <c r="OM4"/>
+      <c r="ON4"/>
+      <c r="OO4"/>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
+      <c r="OS4"/>
+      <c r="OT4"/>
+      <c r="OU4"/>
+      <c r="OV4"/>
+      <c r="OW4"/>
+      <c r="OX4"/>
+      <c r="OY4"/>
+      <c r="OZ4"/>
+      <c r="PA4"/>
+      <c r="PB4"/>
+      <c r="PC4"/>
+      <c r="PD4"/>
+      <c r="PE4"/>
+      <c r="PF4"/>
+      <c r="PG4"/>
+      <c r="PH4"/>
+      <c r="PI4"/>
+      <c r="PJ4"/>
+      <c r="PK4"/>
+      <c r="PL4"/>
+      <c r="PM4"/>
+      <c r="PN4"/>
+      <c r="PO4"/>
+      <c r="PP4"/>
+      <c r="PQ4"/>
+      <c r="PR4"/>
+      <c r="PS4"/>
+      <c r="PT4"/>
+      <c r="PU4"/>
+      <c r="PV4"/>
+      <c r="PW4"/>
+      <c r="PX4"/>
+      <c r="PY4"/>
+      <c r="PZ4"/>
+      <c r="QA4"/>
+      <c r="QB4"/>
+      <c r="QC4"/>
+      <c r="QD4"/>
+      <c r="QE4"/>
+      <c r="QF4"/>
+      <c r="QG4"/>
+      <c r="QH4"/>
+      <c r="QI4"/>
+      <c r="QJ4"/>
+      <c r="QK4"/>
+      <c r="QL4"/>
+      <c r="QM4"/>
+      <c r="QN4"/>
+      <c r="QO4"/>
+      <c r="QP4"/>
+      <c r="QQ4"/>
+      <c r="QR4"/>
+      <c r="QS4"/>
+      <c r="QT4"/>
+      <c r="QU4"/>
+      <c r="QV4"/>
+      <c r="QW4"/>
+      <c r="QX4"/>
+      <c r="QY4"/>
+      <c r="QZ4"/>
+      <c r="RA4"/>
+      <c r="RB4"/>
+      <c r="RC4"/>
+      <c r="RD4"/>
+      <c r="RE4"/>
+      <c r="RF4"/>
+      <c r="RG4"/>
+      <c r="RH4"/>
+      <c r="RI4"/>
+      <c r="RJ4"/>
+      <c r="RK4"/>
+      <c r="RL4"/>
+      <c r="RM4"/>
+      <c r="RN4"/>
+      <c r="RO4"/>
+      <c r="RP4"/>
+      <c r="RQ4"/>
+      <c r="RR4"/>
+      <c r="RS4"/>
+      <c r="RT4"/>
+      <c r="RU4"/>
+      <c r="RV4"/>
+      <c r="RW4"/>
+      <c r="RX4"/>
+      <c r="RY4"/>
+      <c r="RZ4"/>
+      <c r="SA4"/>
+      <c r="SB4"/>
+      <c r="SC4"/>
+      <c r="SD4"/>
+      <c r="SE4"/>
+      <c r="SF4"/>
+      <c r="SG4"/>
+      <c r="SH4"/>
+      <c r="SI4"/>
+      <c r="SJ4"/>
+      <c r="SK4"/>
+      <c r="SL4"/>
+      <c r="SM4"/>
+      <c r="SN4"/>
+      <c r="SO4"/>
+      <c r="SP4"/>
+      <c r="SQ4"/>
+      <c r="SR4"/>
+      <c r="SS4"/>
+      <c r="ST4"/>
+      <c r="SU4"/>
+      <c r="SV4"/>
+      <c r="SW4"/>
+      <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+      <c r="UI4"/>
+      <c r="UJ4"/>
+      <c r="UK4"/>
+      <c r="UL4"/>
+      <c r="UM4"/>
+      <c r="UN4"/>
+      <c r="UO4"/>
+      <c r="UP4"/>
+      <c r="UQ4"/>
+      <c r="UR4"/>
+      <c r="US4"/>
+      <c r="UT4"/>
+      <c r="UU4"/>
+      <c r="UV4"/>
+      <c r="UW4"/>
+      <c r="UX4"/>
+      <c r="UY4"/>
+      <c r="UZ4"/>
+      <c r="VA4"/>
+      <c r="VB4"/>
+      <c r="VC4"/>
+      <c r="VD4"/>
+      <c r="VE4"/>
+      <c r="VF4"/>
+      <c r="VG4"/>
+      <c r="VH4"/>
+      <c r="VI4"/>
+      <c r="VJ4"/>
+      <c r="VK4"/>
+      <c r="VL4"/>
+      <c r="VM4"/>
+      <c r="VN4"/>
+      <c r="VO4"/>
+      <c r="VP4"/>
+      <c r="VQ4"/>
+      <c r="VR4"/>
+      <c r="VS4"/>
+      <c r="VT4"/>
+      <c r="VU4"/>
+      <c r="VV4"/>
+      <c r="VW4"/>
+      <c r="VX4"/>
+      <c r="VY4"/>
+      <c r="VZ4"/>
+      <c r="WA4"/>
+      <c r="WB4"/>
+      <c r="WC4"/>
+      <c r="WD4"/>
+      <c r="WE4"/>
+      <c r="WF4"/>
+      <c r="WG4"/>
+      <c r="WH4"/>
+      <c r="WI4"/>
+      <c r="WJ4"/>
+      <c r="WK4"/>
+      <c r="WL4"/>
+      <c r="WM4"/>
+      <c r="WN4"/>
+      <c r="WO4"/>
+      <c r="WP4"/>
+      <c r="WQ4"/>
+      <c r="WR4"/>
+      <c r="WS4"/>
+      <c r="WT4"/>
+      <c r="WU4"/>
+      <c r="WV4"/>
+      <c r="WW4"/>
+      <c r="WX4"/>
+      <c r="WY4"/>
+      <c r="WZ4"/>
+      <c r="XA4"/>
+      <c r="XB4"/>
+      <c r="XC4"/>
+      <c r="XD4"/>
+      <c r="XE4"/>
+      <c r="XF4"/>
+      <c r="XG4"/>
+      <c r="XH4"/>
+      <c r="XI4"/>
+      <c r="XJ4"/>
+      <c r="XK4"/>
+      <c r="XL4"/>
+      <c r="XM4"/>
+      <c r="XN4"/>
+      <c r="XO4"/>
+      <c r="XP4"/>
+      <c r="XQ4"/>
+      <c r="XR4"/>
+      <c r="XS4"/>
+      <c r="XT4"/>
+      <c r="XU4"/>
+      <c r="XV4"/>
+      <c r="XW4"/>
+      <c r="XX4"/>
+      <c r="XY4"/>
+      <c r="XZ4"/>
+      <c r="YA4"/>
+      <c r="YB4"/>
+      <c r="YC4"/>
+      <c r="YD4"/>
+      <c r="YE4"/>
+      <c r="YF4"/>
+      <c r="YG4"/>
+      <c r="YH4"/>
+      <c r="YI4"/>
+      <c r="YJ4"/>
+      <c r="YK4"/>
+      <c r="YL4"/>
+      <c r="YM4"/>
+      <c r="YN4"/>
+      <c r="YO4"/>
+      <c r="YP4"/>
+      <c r="YQ4"/>
+      <c r="YR4"/>
+      <c r="YS4"/>
+      <c r="YT4"/>
+      <c r="YU4"/>
+      <c r="YV4"/>
+      <c r="YW4"/>
+      <c r="YX4"/>
+      <c r="YY4"/>
+      <c r="YZ4"/>
+      <c r="ZA4"/>
+      <c r="ZB4"/>
+      <c r="ZC4"/>
+      <c r="ZD4"/>
+      <c r="ZE4"/>
+      <c r="ZF4"/>
+      <c r="ZG4"/>
+      <c r="ZH4"/>
+      <c r="ZI4"/>
+      <c r="ZJ4"/>
+      <c r="ZK4"/>
+      <c r="ZL4"/>
+      <c r="ZM4"/>
+      <c r="ZN4"/>
+      <c r="ZO4"/>
+      <c r="ZP4"/>
+      <c r="ZQ4"/>
+      <c r="ZR4"/>
+      <c r="ZS4"/>
+      <c r="ZT4"/>
+      <c r="ZU4"/>
+      <c r="ZV4"/>
+      <c r="ZW4"/>
+      <c r="ZX4"/>
+      <c r="ZY4"/>
+      <c r="ZZ4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
+      <c r="EG5"/>
+      <c r="EH5"/>
+      <c r="EI5"/>
+      <c r="EJ5"/>
+      <c r="EK5"/>
+      <c r="EL5"/>
+      <c r="EM5"/>
+      <c r="EN5"/>
+      <c r="EO5"/>
+      <c r="EP5"/>
+      <c r="EQ5"/>
+      <c r="ER5"/>
+      <c r="ES5"/>
+      <c r="ET5"/>
+      <c r="EU5"/>
+      <c r="EV5"/>
+      <c r="EW5"/>
+      <c r="EX5"/>
+      <c r="EY5"/>
+      <c r="EZ5"/>
+      <c r="FA5"/>
+      <c r="FB5"/>
+      <c r="FC5"/>
+      <c r="FD5"/>
+      <c r="FE5"/>
+      <c r="FF5"/>
+      <c r="FG5"/>
+      <c r="FH5"/>
+      <c r="FI5"/>
+      <c r="FJ5"/>
+      <c r="FK5"/>
+      <c r="FL5"/>
+      <c r="FM5"/>
+      <c r="FN5"/>
+      <c r="FO5"/>
+      <c r="FP5"/>
+      <c r="FQ5"/>
+      <c r="FR5"/>
+      <c r="FS5"/>
+      <c r="FT5"/>
+      <c r="FU5"/>
+      <c r="FV5"/>
+      <c r="FW5"/>
+      <c r="FX5"/>
+      <c r="FY5"/>
+      <c r="FZ5"/>
+      <c r="GA5"/>
+      <c r="GB5"/>
+      <c r="GC5"/>
+      <c r="GD5"/>
+      <c r="GE5"/>
+      <c r="GF5"/>
+      <c r="GG5"/>
+      <c r="GH5"/>
+      <c r="GI5"/>
+      <c r="GJ5"/>
+      <c r="GK5"/>
+      <c r="GL5"/>
+      <c r="GM5"/>
+      <c r="GN5"/>
+      <c r="GO5"/>
+      <c r="GP5"/>
+      <c r="GQ5"/>
+      <c r="GR5"/>
+      <c r="GS5"/>
+      <c r="GT5"/>
+      <c r="GU5"/>
+      <c r="GV5"/>
+      <c r="GW5"/>
+      <c r="GX5"/>
+      <c r="GY5"/>
+      <c r="GZ5"/>
       <c r="HA5" s="4"/>
+      <c r="HB5"/>
+      <c r="HC5"/>
+      <c r="HD5"/>
+      <c r="HE5"/>
+      <c r="HF5"/>
+      <c r="HG5"/>
+      <c r="HH5"/>
+      <c r="HI5"/>
+      <c r="HJ5"/>
+      <c r="HK5"/>
+      <c r="HL5"/>
+      <c r="HM5"/>
+      <c r="HN5"/>
+      <c r="HO5"/>
+      <c r="HP5"/>
+      <c r="HQ5"/>
+      <c r="HR5"/>
+      <c r="HS5"/>
+      <c r="HT5"/>
+      <c r="HU5"/>
+      <c r="HV5"/>
+      <c r="HW5"/>
+      <c r="HX5"/>
+      <c r="HY5"/>
+      <c r="HZ5"/>
+      <c r="IA5"/>
+      <c r="IB5"/>
+      <c r="IC5"/>
+      <c r="ID5"/>
+      <c r="IE5"/>
+      <c r="IF5"/>
+      <c r="IG5"/>
+      <c r="IH5"/>
+      <c r="II5"/>
+      <c r="IJ5"/>
+      <c r="IK5"/>
+      <c r="IL5"/>
+      <c r="IM5"/>
+      <c r="IN5"/>
+      <c r="IO5"/>
+      <c r="IP5"/>
+      <c r="IQ5"/>
+      <c r="IR5"/>
+      <c r="IS5"/>
+      <c r="IT5"/>
+      <c r="IU5"/>
+      <c r="IV5"/>
+      <c r="IW5"/>
+      <c r="IX5"/>
+      <c r="IY5"/>
+      <c r="IZ5"/>
+      <c r="JA5"/>
+      <c r="JB5"/>
+      <c r="JC5"/>
+      <c r="JD5"/>
+      <c r="JE5"/>
+      <c r="JF5"/>
+      <c r="JG5"/>
+      <c r="JH5"/>
+      <c r="JI5"/>
+      <c r="JJ5"/>
+      <c r="JK5"/>
+      <c r="JL5"/>
+      <c r="JM5"/>
+      <c r="JN5"/>
+      <c r="JO5"/>
+      <c r="JP5"/>
+      <c r="JQ5"/>
+      <c r="JR5"/>
+      <c r="JS5"/>
+      <c r="JT5"/>
+      <c r="JU5"/>
+      <c r="JV5"/>
+      <c r="JW5"/>
+      <c r="JX5"/>
+      <c r="JY5"/>
+      <c r="JZ5"/>
+      <c r="KA5"/>
+      <c r="KB5"/>
+      <c r="KC5"/>
+      <c r="KD5"/>
+      <c r="KE5"/>
+      <c r="KF5"/>
+      <c r="KG5"/>
+      <c r="KH5"/>
+      <c r="KI5"/>
+      <c r="KJ5"/>
+      <c r="KK5"/>
+      <c r="KL5"/>
+      <c r="KM5"/>
+      <c r="KN5"/>
+      <c r="KO5"/>
+      <c r="KP5"/>
+      <c r="KQ5"/>
+      <c r="KR5"/>
+      <c r="KS5"/>
+      <c r="KT5"/>
+      <c r="KU5"/>
+      <c r="KV5"/>
+      <c r="KW5"/>
+      <c r="KX5"/>
+      <c r="KY5"/>
+      <c r="KZ5"/>
+      <c r="LA5"/>
+      <c r="LB5"/>
+      <c r="LC5"/>
+      <c r="LD5"/>
+      <c r="LE5"/>
+      <c r="LF5"/>
+      <c r="LG5"/>
+      <c r="LH5"/>
+      <c r="LI5"/>
+      <c r="LJ5"/>
+      <c r="LK5"/>
+      <c r="LL5"/>
+      <c r="LM5"/>
+      <c r="LN5"/>
+      <c r="LO5"/>
+      <c r="LP5"/>
+      <c r="LQ5"/>
+      <c r="LR5"/>
+      <c r="LS5"/>
+      <c r="LT5"/>
+      <c r="LU5"/>
+      <c r="LV5"/>
+      <c r="LW5"/>
+      <c r="LX5"/>
+      <c r="LY5"/>
+      <c r="LZ5"/>
+      <c r="MA5"/>
+      <c r="MB5"/>
+      <c r="MC5"/>
+      <c r="MD5"/>
+      <c r="ME5"/>
+      <c r="MF5"/>
+      <c r="MG5"/>
+      <c r="MH5"/>
+      <c r="MI5"/>
+      <c r="MJ5"/>
+      <c r="MK5"/>
+      <c r="ML5"/>
+      <c r="MM5"/>
+      <c r="MN5"/>
+      <c r="MO5"/>
+      <c r="MP5"/>
+      <c r="MQ5"/>
+      <c r="MR5"/>
+      <c r="MS5"/>
+      <c r="MT5"/>
+      <c r="MU5"/>
+      <c r="MV5"/>
+      <c r="MW5"/>
+      <c r="MX5"/>
+      <c r="MY5"/>
+      <c r="MZ5"/>
+      <c r="NA5"/>
+      <c r="NB5"/>
+      <c r="NC5"/>
+      <c r="ND5"/>
+      <c r="NE5"/>
+      <c r="NF5"/>
+      <c r="NG5"/>
+      <c r="NH5"/>
+      <c r="NI5"/>
+      <c r="NJ5"/>
+      <c r="NK5"/>
+      <c r="NL5"/>
+      <c r="NM5"/>
+      <c r="NN5"/>
+      <c r="NO5"/>
+      <c r="NP5"/>
+      <c r="NQ5"/>
+      <c r="NR5"/>
+      <c r="NS5"/>
+      <c r="NT5"/>
+      <c r="NU5"/>
+      <c r="NV5"/>
+      <c r="NW5"/>
+      <c r="NX5"/>
+      <c r="NY5"/>
+      <c r="NZ5"/>
+      <c r="OA5"/>
+      <c r="OB5"/>
+      <c r="OC5"/>
+      <c r="OD5"/>
+      <c r="OE5"/>
+      <c r="OF5"/>
+      <c r="OG5"/>
+      <c r="OH5"/>
+      <c r="OI5"/>
+      <c r="OJ5"/>
+      <c r="OK5"/>
+      <c r="OL5"/>
+      <c r="OM5"/>
+      <c r="ON5"/>
+      <c r="OO5"/>
+      <c r="OP5"/>
+      <c r="OQ5"/>
+      <c r="OR5"/>
+      <c r="OS5"/>
+      <c r="OT5"/>
+      <c r="OU5"/>
+      <c r="OV5"/>
+      <c r="OW5"/>
+      <c r="OX5"/>
+      <c r="OY5"/>
+      <c r="OZ5"/>
+      <c r="PA5"/>
+      <c r="PB5"/>
+      <c r="PC5"/>
+      <c r="PD5"/>
+      <c r="PE5"/>
+      <c r="PF5"/>
+      <c r="PG5"/>
+      <c r="PH5"/>
+      <c r="PI5"/>
+      <c r="PJ5"/>
+      <c r="PK5"/>
+      <c r="PL5"/>
+      <c r="PM5"/>
+      <c r="PN5"/>
+      <c r="PO5"/>
+      <c r="PP5"/>
+      <c r="PQ5"/>
+      <c r="PR5"/>
+      <c r="PS5"/>
+      <c r="PT5"/>
+      <c r="PU5"/>
+      <c r="PV5"/>
+      <c r="PW5"/>
+      <c r="PX5"/>
+      <c r="PY5"/>
+      <c r="PZ5"/>
+      <c r="QA5"/>
+      <c r="QB5"/>
+      <c r="QC5"/>
+      <c r="QD5"/>
+      <c r="QE5"/>
+      <c r="QF5"/>
+      <c r="QG5"/>
+      <c r="QH5"/>
+      <c r="QI5"/>
+      <c r="QJ5"/>
+      <c r="QK5"/>
+      <c r="QL5"/>
+      <c r="QM5"/>
+      <c r="QN5"/>
+      <c r="QO5"/>
+      <c r="QP5"/>
+      <c r="QQ5"/>
+      <c r="QR5"/>
+      <c r="QS5"/>
+      <c r="QT5"/>
+      <c r="QU5"/>
+      <c r="QV5"/>
+      <c r="QW5"/>
+      <c r="QX5"/>
+      <c r="QY5"/>
+      <c r="QZ5"/>
+      <c r="RA5"/>
+      <c r="RB5"/>
+      <c r="RC5"/>
+      <c r="RD5"/>
+      <c r="RE5"/>
+      <c r="RF5"/>
+      <c r="RG5"/>
+      <c r="RH5"/>
+      <c r="RI5"/>
+      <c r="RJ5"/>
+      <c r="RK5"/>
+      <c r="RL5"/>
+      <c r="RM5"/>
+      <c r="RN5"/>
+      <c r="RO5"/>
+      <c r="RP5"/>
+      <c r="RQ5"/>
+      <c r="RR5"/>
+      <c r="RS5"/>
+      <c r="RT5"/>
+      <c r="RU5"/>
+      <c r="RV5"/>
+      <c r="RW5"/>
+      <c r="RX5"/>
+      <c r="RY5"/>
+      <c r="RZ5"/>
+      <c r="SA5"/>
+      <c r="SB5"/>
+      <c r="SC5"/>
+      <c r="SD5"/>
+      <c r="SE5"/>
+      <c r="SF5"/>
+      <c r="SG5"/>
+      <c r="SH5"/>
+      <c r="SI5"/>
+      <c r="SJ5"/>
+      <c r="SK5"/>
+      <c r="SL5"/>
+      <c r="SM5"/>
+      <c r="SN5"/>
+      <c r="SO5"/>
+      <c r="SP5"/>
+      <c r="SQ5"/>
+      <c r="SR5"/>
+      <c r="SS5"/>
+      <c r="ST5"/>
+      <c r="SU5"/>
+      <c r="SV5"/>
+      <c r="SW5"/>
+      <c r="SX5"/>
+      <c r="SY5"/>
+      <c r="SZ5"/>
+      <c r="TA5"/>
+      <c r="TB5"/>
+      <c r="TC5"/>
+      <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
+      <c r="UH5"/>
+      <c r="UI5"/>
+      <c r="UJ5"/>
+      <c r="UK5"/>
+      <c r="UL5"/>
+      <c r="UM5"/>
+      <c r="UN5"/>
+      <c r="UO5"/>
+      <c r="UP5"/>
+      <c r="UQ5"/>
+      <c r="UR5"/>
+      <c r="US5"/>
+      <c r="UT5"/>
+      <c r="UU5"/>
+      <c r="UV5"/>
+      <c r="UW5"/>
+      <c r="UX5"/>
+      <c r="UY5"/>
+      <c r="UZ5"/>
+      <c r="VA5"/>
+      <c r="VB5"/>
+      <c r="VC5"/>
+      <c r="VD5"/>
+      <c r="VE5"/>
+      <c r="VF5"/>
+      <c r="VG5"/>
+      <c r="VH5"/>
+      <c r="VI5"/>
+      <c r="VJ5"/>
+      <c r="VK5"/>
+      <c r="VL5"/>
+      <c r="VM5"/>
+      <c r="VN5"/>
+      <c r="VO5"/>
+      <c r="VP5"/>
+      <c r="VQ5"/>
+      <c r="VR5"/>
+      <c r="VS5"/>
+      <c r="VT5"/>
+      <c r="VU5"/>
+      <c r="VV5"/>
+      <c r="VW5"/>
+      <c r="VX5"/>
+      <c r="VY5"/>
+      <c r="VZ5"/>
+      <c r="WA5"/>
+      <c r="WB5"/>
+      <c r="WC5"/>
+      <c r="WD5"/>
+      <c r="WE5"/>
+      <c r="WF5"/>
+      <c r="WG5"/>
+      <c r="WH5"/>
+      <c r="WI5"/>
+      <c r="WJ5"/>
+      <c r="WK5"/>
+      <c r="WL5"/>
+      <c r="WM5"/>
+      <c r="WN5"/>
+      <c r="WO5"/>
+      <c r="WP5"/>
+      <c r="WQ5"/>
+      <c r="WR5"/>
+      <c r="WS5"/>
+      <c r="WT5"/>
+      <c r="WU5"/>
+      <c r="WV5"/>
+      <c r="WW5"/>
+      <c r="WX5"/>
+      <c r="WY5"/>
+      <c r="WZ5"/>
+      <c r="XA5"/>
+      <c r="XB5"/>
+      <c r="XC5"/>
+      <c r="XD5"/>
+      <c r="XE5"/>
+      <c r="XF5"/>
+      <c r="XG5"/>
+      <c r="XH5"/>
+      <c r="XI5"/>
+      <c r="XJ5"/>
+      <c r="XK5"/>
+      <c r="XL5"/>
+      <c r="XM5"/>
+      <c r="XN5"/>
+      <c r="XO5"/>
+      <c r="XP5"/>
+      <c r="XQ5"/>
+      <c r="XR5"/>
+      <c r="XS5"/>
+      <c r="XT5"/>
+      <c r="XU5"/>
+      <c r="XV5"/>
+      <c r="XW5"/>
+      <c r="XX5"/>
+      <c r="XY5"/>
+      <c r="XZ5"/>
+      <c r="YA5"/>
+      <c r="YB5"/>
+      <c r="YC5"/>
+      <c r="YD5"/>
+      <c r="YE5"/>
+      <c r="YF5"/>
+      <c r="YG5"/>
+      <c r="YH5"/>
+      <c r="YI5"/>
+      <c r="YJ5"/>
+      <c r="YK5"/>
+      <c r="YL5"/>
+      <c r="YM5"/>
+      <c r="YN5"/>
+      <c r="YO5"/>
+      <c r="YP5"/>
+      <c r="YQ5"/>
+      <c r="YR5"/>
+      <c r="YS5"/>
+      <c r="YT5"/>
+      <c r="YU5"/>
+      <c r="YV5"/>
+      <c r="YW5"/>
+      <c r="YX5"/>
+      <c r="YY5"/>
+      <c r="YZ5"/>
+      <c r="ZA5"/>
+      <c r="ZB5"/>
+      <c r="ZC5"/>
+      <c r="ZD5"/>
+      <c r="ZE5"/>
+      <c r="ZF5"/>
+      <c r="ZG5"/>
+      <c r="ZH5"/>
+      <c r="ZI5"/>
+      <c r="ZJ5"/>
+      <c r="ZK5"/>
+      <c r="ZL5"/>
+      <c r="ZM5"/>
+      <c r="ZN5"/>
+      <c r="ZO5"/>
+      <c r="ZP5"/>
+      <c r="ZQ5"/>
+      <c r="ZR5"/>
+      <c r="ZS5"/>
+      <c r="ZT5"/>
+      <c r="ZU5"/>
+      <c r="ZV5"/>
+      <c r="ZW5"/>
+      <c r="ZX5"/>
+      <c r="ZY5"/>
+      <c r="ZZ5"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6"/>
+      <c r="GM6"/>
+      <c r="GN6"/>
+      <c r="GO6"/>
+      <c r="GP6"/>
+      <c r="GQ6"/>
+      <c r="GR6"/>
+      <c r="GS6"/>
+      <c r="GT6"/>
+      <c r="GU6"/>
+      <c r="GV6"/>
+      <c r="GW6"/>
+      <c r="GX6"/>
+      <c r="GY6"/>
+      <c r="GZ6"/>
       <c r="HA6" s="4"/>
+      <c r="HB6"/>
+      <c r="HC6"/>
+      <c r="HD6"/>
+      <c r="HE6"/>
+      <c r="HF6"/>
+      <c r="HG6"/>
+      <c r="HH6"/>
+      <c r="HI6"/>
+      <c r="HJ6"/>
+      <c r="HK6"/>
+      <c r="HL6"/>
+      <c r="HM6"/>
+      <c r="HN6"/>
+      <c r="HO6"/>
+      <c r="HP6"/>
+      <c r="HQ6"/>
+      <c r="HR6"/>
+      <c r="HS6"/>
+      <c r="HT6"/>
+      <c r="HU6"/>
+      <c r="HV6"/>
+      <c r="HW6"/>
+      <c r="HX6"/>
+      <c r="HY6"/>
+      <c r="HZ6"/>
+      <c r="IA6"/>
+      <c r="IB6"/>
+      <c r="IC6"/>
+      <c r="ID6"/>
+      <c r="IE6"/>
+      <c r="IF6"/>
+      <c r="IG6"/>
+      <c r="IH6"/>
+      <c r="II6"/>
+      <c r="IJ6"/>
+      <c r="IK6"/>
+      <c r="IL6"/>
+      <c r="IM6"/>
+      <c r="IN6"/>
+      <c r="IO6"/>
+      <c r="IP6"/>
+      <c r="IQ6"/>
+      <c r="IR6"/>
+      <c r="IS6"/>
+      <c r="IT6"/>
+      <c r="IU6"/>
+      <c r="IV6"/>
+      <c r="IW6"/>
+      <c r="IX6"/>
+      <c r="IY6"/>
+      <c r="IZ6"/>
+      <c r="JA6"/>
+      <c r="JB6"/>
+      <c r="JC6"/>
+      <c r="JD6"/>
+      <c r="JE6"/>
+      <c r="JF6"/>
+      <c r="JG6"/>
+      <c r="JH6"/>
+      <c r="JI6"/>
+      <c r="JJ6"/>
+      <c r="JK6"/>
+      <c r="JL6"/>
+      <c r="JM6"/>
+      <c r="JN6"/>
+      <c r="JO6"/>
+      <c r="JP6"/>
+      <c r="JQ6"/>
+      <c r="JR6"/>
+      <c r="JS6"/>
+      <c r="JT6"/>
+      <c r="JU6"/>
+      <c r="JV6"/>
+      <c r="JW6"/>
+      <c r="JX6"/>
+      <c r="JY6"/>
+      <c r="JZ6"/>
+      <c r="KA6"/>
+      <c r="KB6"/>
+      <c r="KC6"/>
+      <c r="KD6"/>
+      <c r="KE6"/>
+      <c r="KF6"/>
+      <c r="KG6"/>
+      <c r="KH6"/>
+      <c r="KI6"/>
+      <c r="KJ6"/>
+      <c r="KK6"/>
+      <c r="KL6"/>
+      <c r="KM6"/>
+      <c r="KN6"/>
+      <c r="KO6"/>
+      <c r="KP6"/>
+      <c r="KQ6"/>
+      <c r="KR6"/>
+      <c r="KS6"/>
+      <c r="KT6"/>
+      <c r="KU6"/>
+      <c r="KV6"/>
+      <c r="KW6"/>
+      <c r="KX6"/>
+      <c r="KY6"/>
+      <c r="KZ6"/>
+      <c r="LA6"/>
+      <c r="LB6"/>
+      <c r="LC6"/>
+      <c r="LD6"/>
+      <c r="LE6"/>
+      <c r="LF6"/>
+      <c r="LG6"/>
+      <c r="LH6"/>
+      <c r="LI6"/>
+      <c r="LJ6"/>
+      <c r="LK6"/>
+      <c r="LL6"/>
+      <c r="LM6"/>
+      <c r="LN6"/>
+      <c r="LO6"/>
+      <c r="LP6"/>
+      <c r="LQ6"/>
+      <c r="LR6"/>
+      <c r="LS6"/>
+      <c r="LT6"/>
+      <c r="LU6"/>
+      <c r="LV6"/>
+      <c r="LW6"/>
+      <c r="LX6"/>
+      <c r="LY6"/>
+      <c r="LZ6"/>
+      <c r="MA6"/>
+      <c r="MB6"/>
+      <c r="MC6"/>
+      <c r="MD6"/>
+      <c r="ME6"/>
+      <c r="MF6"/>
+      <c r="MG6"/>
+      <c r="MH6"/>
+      <c r="MI6"/>
+      <c r="MJ6"/>
+      <c r="MK6"/>
+      <c r="ML6"/>
+      <c r="MM6"/>
+      <c r="MN6"/>
+      <c r="MO6"/>
+      <c r="MP6"/>
+      <c r="MQ6"/>
+      <c r="MR6"/>
+      <c r="MS6"/>
+      <c r="MT6"/>
+      <c r="MU6"/>
+      <c r="MV6"/>
+      <c r="MW6"/>
+      <c r="MX6"/>
+      <c r="MY6"/>
+      <c r="MZ6"/>
+      <c r="NA6"/>
+      <c r="NB6"/>
+      <c r="NC6"/>
+      <c r="ND6"/>
+      <c r="NE6"/>
+      <c r="NF6"/>
+      <c r="NG6"/>
+      <c r="NH6"/>
+      <c r="NI6"/>
+      <c r="NJ6"/>
+      <c r="NK6"/>
+      <c r="NL6"/>
+      <c r="NM6"/>
+      <c r="NN6"/>
+      <c r="NO6"/>
+      <c r="NP6"/>
+      <c r="NQ6"/>
+      <c r="NR6"/>
+      <c r="NS6"/>
+      <c r="NT6"/>
+      <c r="NU6"/>
+      <c r="NV6"/>
+      <c r="NW6"/>
+      <c r="NX6"/>
+      <c r="NY6"/>
+      <c r="NZ6"/>
+      <c r="OA6"/>
+      <c r="OB6"/>
+      <c r="OC6"/>
+      <c r="OD6"/>
+      <c r="OE6"/>
+      <c r="OF6"/>
+      <c r="OG6"/>
+      <c r="OH6"/>
+      <c r="OI6"/>
+      <c r="OJ6"/>
+      <c r="OK6"/>
+      <c r="OL6"/>
+      <c r="OM6"/>
+      <c r="ON6"/>
+      <c r="OO6"/>
+      <c r="OP6"/>
+      <c r="OQ6"/>
+      <c r="OR6"/>
+      <c r="OS6"/>
+      <c r="OT6"/>
+      <c r="OU6"/>
+      <c r="OV6"/>
+      <c r="OW6"/>
+      <c r="OX6"/>
+      <c r="OY6"/>
+      <c r="OZ6"/>
+      <c r="PA6"/>
+      <c r="PB6"/>
+      <c r="PC6"/>
+      <c r="PD6"/>
+      <c r="PE6"/>
+      <c r="PF6"/>
+      <c r="PG6"/>
+      <c r="PH6"/>
+      <c r="PI6"/>
+      <c r="PJ6"/>
+      <c r="PK6"/>
+      <c r="PL6"/>
+      <c r="PM6"/>
+      <c r="PN6"/>
+      <c r="PO6"/>
+      <c r="PP6"/>
+      <c r="PQ6"/>
+      <c r="PR6"/>
+      <c r="PS6"/>
+      <c r="PT6"/>
+      <c r="PU6"/>
+      <c r="PV6"/>
+      <c r="PW6"/>
+      <c r="PX6"/>
+      <c r="PY6"/>
+      <c r="PZ6"/>
+      <c r="QA6"/>
+      <c r="QB6"/>
+      <c r="QC6"/>
+      <c r="QD6"/>
+      <c r="QE6"/>
+      <c r="QF6"/>
+      <c r="QG6"/>
+      <c r="QH6"/>
+      <c r="QI6"/>
+      <c r="QJ6"/>
+      <c r="QK6"/>
+      <c r="QL6"/>
+      <c r="QM6"/>
+      <c r="QN6"/>
+      <c r="QO6"/>
+      <c r="QP6"/>
+      <c r="QQ6"/>
+      <c r="QR6"/>
+      <c r="QS6"/>
+      <c r="QT6"/>
+      <c r="QU6"/>
+      <c r="QV6"/>
+      <c r="QW6"/>
+      <c r="QX6"/>
+      <c r="QY6"/>
+      <c r="QZ6"/>
+      <c r="RA6"/>
+      <c r="RB6"/>
+      <c r="RC6"/>
+      <c r="RD6"/>
+      <c r="RE6"/>
+      <c r="RF6"/>
+      <c r="RG6"/>
+      <c r="RH6"/>
+      <c r="RI6"/>
+      <c r="RJ6"/>
+      <c r="RK6"/>
+      <c r="RL6"/>
+      <c r="RM6"/>
+      <c r="RN6"/>
+      <c r="RO6"/>
+      <c r="RP6"/>
+      <c r="RQ6"/>
+      <c r="RR6"/>
+      <c r="RS6"/>
+      <c r="RT6"/>
+      <c r="RU6"/>
+      <c r="RV6"/>
+      <c r="RW6"/>
+      <c r="RX6"/>
+      <c r="RY6"/>
+      <c r="RZ6"/>
+      <c r="SA6"/>
+      <c r="SB6"/>
+      <c r="SC6"/>
+      <c r="SD6"/>
+      <c r="SE6"/>
+      <c r="SF6"/>
+      <c r="SG6"/>
+      <c r="SH6"/>
+      <c r="SI6"/>
+      <c r="SJ6"/>
+      <c r="SK6"/>
+      <c r="SL6"/>
+      <c r="SM6"/>
+      <c r="SN6"/>
+      <c r="SO6"/>
+      <c r="SP6"/>
+      <c r="SQ6"/>
+      <c r="SR6"/>
+      <c r="SS6"/>
+      <c r="ST6"/>
+      <c r="SU6"/>
+      <c r="SV6"/>
+      <c r="SW6"/>
+      <c r="SX6"/>
+      <c r="SY6"/>
+      <c r="SZ6"/>
+      <c r="TA6"/>
+      <c r="TB6"/>
+      <c r="TC6"/>
+      <c r="TD6"/>
+      <c r="TE6"/>
+      <c r="TF6"/>
+      <c r="TG6"/>
+      <c r="TH6"/>
+      <c r="TI6"/>
+      <c r="TJ6"/>
+      <c r="TK6"/>
+      <c r="TL6"/>
+      <c r="TM6"/>
+      <c r="TN6"/>
+      <c r="TO6"/>
+      <c r="TP6"/>
+      <c r="TQ6"/>
+      <c r="TR6"/>
+      <c r="TS6"/>
+      <c r="TT6"/>
+      <c r="TU6"/>
+      <c r="TV6"/>
+      <c r="TW6"/>
+      <c r="TX6"/>
+      <c r="TY6"/>
+      <c r="TZ6"/>
+      <c r="UA6"/>
+      <c r="UB6"/>
+      <c r="UC6"/>
+      <c r="UD6"/>
+      <c r="UE6"/>
+      <c r="UF6"/>
+      <c r="UG6"/>
+      <c r="UH6"/>
+      <c r="UI6"/>
+      <c r="UJ6"/>
+      <c r="UK6"/>
+      <c r="UL6"/>
+      <c r="UM6"/>
+      <c r="UN6"/>
+      <c r="UO6"/>
+      <c r="UP6"/>
+      <c r="UQ6"/>
+      <c r="UR6"/>
+      <c r="US6"/>
+      <c r="UT6"/>
+      <c r="UU6"/>
+      <c r="UV6"/>
+      <c r="UW6"/>
+      <c r="UX6"/>
+      <c r="UY6"/>
+      <c r="UZ6"/>
+      <c r="VA6"/>
+      <c r="VB6"/>
+      <c r="VC6"/>
+      <c r="VD6"/>
+      <c r="VE6"/>
+      <c r="VF6"/>
+      <c r="VG6"/>
+      <c r="VH6"/>
+      <c r="VI6"/>
+      <c r="VJ6"/>
+      <c r="VK6"/>
+      <c r="VL6"/>
+      <c r="VM6"/>
+      <c r="VN6"/>
+      <c r="VO6"/>
+      <c r="VP6"/>
+      <c r="VQ6"/>
+      <c r="VR6"/>
+      <c r="VS6"/>
+      <c r="VT6"/>
+      <c r="VU6"/>
+      <c r="VV6"/>
+      <c r="VW6"/>
+      <c r="VX6"/>
+      <c r="VY6"/>
+      <c r="VZ6"/>
+      <c r="WA6"/>
+      <c r="WB6"/>
+      <c r="WC6"/>
+      <c r="WD6"/>
+      <c r="WE6"/>
+      <c r="WF6"/>
+      <c r="WG6"/>
+      <c r="WH6"/>
+      <c r="WI6"/>
+      <c r="WJ6"/>
+      <c r="WK6"/>
+      <c r="WL6"/>
+      <c r="WM6"/>
+      <c r="WN6"/>
+      <c r="WO6"/>
+      <c r="WP6"/>
+      <c r="WQ6"/>
+      <c r="WR6"/>
+      <c r="WS6"/>
+      <c r="WT6"/>
+      <c r="WU6"/>
+      <c r="WV6"/>
+      <c r="WW6"/>
+      <c r="WX6"/>
+      <c r="WY6"/>
+      <c r="WZ6"/>
+      <c r="XA6"/>
+      <c r="XB6"/>
+      <c r="XC6"/>
+      <c r="XD6"/>
+      <c r="XE6"/>
+      <c r="XF6"/>
+      <c r="XG6"/>
+      <c r="XH6"/>
+      <c r="XI6"/>
+      <c r="XJ6"/>
+      <c r="XK6"/>
+      <c r="XL6"/>
+      <c r="XM6"/>
+      <c r="XN6"/>
+      <c r="XO6"/>
+      <c r="XP6"/>
+      <c r="XQ6"/>
+      <c r="XR6"/>
+      <c r="XS6"/>
+      <c r="XT6"/>
+      <c r="XU6"/>
+      <c r="XV6"/>
+      <c r="XW6"/>
+      <c r="XX6"/>
+      <c r="XY6"/>
+      <c r="XZ6"/>
+      <c r="YA6"/>
+      <c r="YB6"/>
+      <c r="YC6"/>
+      <c r="YD6"/>
+      <c r="YE6"/>
+      <c r="YF6"/>
+      <c r="YG6"/>
+      <c r="YH6"/>
+      <c r="YI6"/>
+      <c r="YJ6"/>
+      <c r="YK6"/>
+      <c r="YL6"/>
+      <c r="YM6"/>
+      <c r="YN6"/>
+      <c r="YO6"/>
+      <c r="YP6"/>
+      <c r="YQ6"/>
+      <c r="YR6"/>
+      <c r="YS6"/>
+      <c r="YT6"/>
+      <c r="YU6"/>
+      <c r="YV6"/>
+      <c r="YW6"/>
+      <c r="YX6"/>
+      <c r="YY6"/>
+      <c r="YZ6"/>
+      <c r="ZA6"/>
+      <c r="ZB6"/>
+      <c r="ZC6"/>
+      <c r="ZD6"/>
+      <c r="ZE6"/>
+      <c r="ZF6"/>
+      <c r="ZG6"/>
+      <c r="ZH6"/>
+      <c r="ZI6"/>
+      <c r="ZJ6"/>
+      <c r="ZK6"/>
+      <c r="ZL6"/>
+      <c r="ZM6"/>
+      <c r="ZN6"/>
+      <c r="ZO6"/>
+      <c r="ZP6"/>
+      <c r="ZQ6"/>
+      <c r="ZR6"/>
+      <c r="ZS6"/>
+      <c r="ZT6"/>
+      <c r="ZU6"/>
+      <c r="ZV6"/>
+      <c r="ZW6"/>
+      <c r="ZX6"/>
+      <c r="ZY6"/>
+      <c r="ZZ6"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
+      <c r="GB7"/>
+      <c r="GC7"/>
+      <c r="GD7"/>
+      <c r="GE7"/>
+      <c r="GF7"/>
+      <c r="GG7"/>
+      <c r="GH7"/>
+      <c r="GI7"/>
+      <c r="GJ7"/>
+      <c r="GK7"/>
+      <c r="GL7"/>
+      <c r="GM7"/>
+      <c r="GN7"/>
+      <c r="GO7"/>
+      <c r="GP7"/>
+      <c r="GQ7"/>
+      <c r="GR7"/>
+      <c r="GS7"/>
+      <c r="GT7"/>
+      <c r="GU7"/>
+      <c r="GV7"/>
+      <c r="GW7"/>
+      <c r="GX7"/>
+      <c r="GY7"/>
+      <c r="GZ7"/>
       <c r="HA7" s="4"/>
+      <c r="HB7"/>
+      <c r="HC7"/>
+      <c r="HD7"/>
+      <c r="HE7"/>
+      <c r="HF7"/>
+      <c r="HG7"/>
+      <c r="HH7"/>
+      <c r="HI7"/>
+      <c r="HJ7"/>
+      <c r="HK7"/>
+      <c r="HL7"/>
+      <c r="HM7"/>
+      <c r="HN7"/>
+      <c r="HO7"/>
+      <c r="HP7"/>
+      <c r="HQ7"/>
+      <c r="HR7"/>
+      <c r="HS7"/>
+      <c r="HT7"/>
+      <c r="HU7"/>
+      <c r="HV7"/>
+      <c r="HW7"/>
+      <c r="HX7"/>
+      <c r="HY7"/>
+      <c r="HZ7"/>
+      <c r="IA7"/>
+      <c r="IB7"/>
+      <c r="IC7"/>
+      <c r="ID7"/>
+      <c r="IE7"/>
+      <c r="IF7"/>
+      <c r="IG7"/>
+      <c r="IH7"/>
+      <c r="II7"/>
+      <c r="IJ7"/>
+      <c r="IK7"/>
+      <c r="IL7"/>
+      <c r="IM7"/>
+      <c r="IN7"/>
+      <c r="IO7"/>
+      <c r="IP7"/>
+      <c r="IQ7"/>
+      <c r="IR7"/>
+      <c r="IS7"/>
+      <c r="IT7"/>
+      <c r="IU7"/>
+      <c r="IV7"/>
+      <c r="IW7"/>
+      <c r="IX7"/>
+      <c r="IY7"/>
+      <c r="IZ7"/>
+      <c r="JA7"/>
+      <c r="JB7"/>
+      <c r="JC7"/>
+      <c r="JD7"/>
+      <c r="JE7"/>
+      <c r="JF7"/>
+      <c r="JG7"/>
+      <c r="JH7"/>
+      <c r="JI7"/>
+      <c r="JJ7"/>
+      <c r="JK7"/>
+      <c r="JL7"/>
+      <c r="JM7"/>
+      <c r="JN7"/>
+      <c r="JO7"/>
+      <c r="JP7"/>
+      <c r="JQ7"/>
+      <c r="JR7"/>
+      <c r="JS7"/>
+      <c r="JT7"/>
+      <c r="JU7"/>
+      <c r="JV7"/>
+      <c r="JW7"/>
+      <c r="JX7"/>
+      <c r="JY7"/>
+      <c r="JZ7"/>
+      <c r="KA7"/>
+      <c r="KB7"/>
+      <c r="KC7"/>
+      <c r="KD7"/>
+      <c r="KE7"/>
+      <c r="KF7"/>
+      <c r="KG7"/>
+      <c r="KH7"/>
+      <c r="KI7"/>
+      <c r="KJ7"/>
+      <c r="KK7"/>
+      <c r="KL7"/>
+      <c r="KM7"/>
+      <c r="KN7"/>
+      <c r="KO7"/>
+      <c r="KP7"/>
+      <c r="KQ7"/>
+      <c r="KR7"/>
+      <c r="KS7"/>
+      <c r="KT7"/>
+      <c r="KU7"/>
+      <c r="KV7"/>
+      <c r="KW7"/>
+      <c r="KX7"/>
+      <c r="KY7"/>
+      <c r="KZ7"/>
+      <c r="LA7"/>
+      <c r="LB7"/>
+      <c r="LC7"/>
+      <c r="LD7"/>
+      <c r="LE7"/>
+      <c r="LF7"/>
+      <c r="LG7"/>
+      <c r="LH7"/>
+      <c r="LI7"/>
+      <c r="LJ7"/>
+      <c r="LK7"/>
+      <c r="LL7"/>
+      <c r="LM7"/>
+      <c r="LN7"/>
+      <c r="LO7"/>
+      <c r="LP7"/>
+      <c r="LQ7"/>
+      <c r="LR7"/>
+      <c r="LS7"/>
+      <c r="LT7"/>
+      <c r="LU7"/>
+      <c r="LV7"/>
+      <c r="LW7"/>
+      <c r="LX7"/>
+      <c r="LY7"/>
+      <c r="LZ7"/>
+      <c r="MA7"/>
+      <c r="MB7"/>
+      <c r="MC7"/>
+      <c r="MD7"/>
+      <c r="ME7"/>
+      <c r="MF7"/>
+      <c r="MG7"/>
+      <c r="MH7"/>
+      <c r="MI7"/>
+      <c r="MJ7"/>
+      <c r="MK7"/>
+      <c r="ML7"/>
+      <c r="MM7"/>
+      <c r="MN7"/>
+      <c r="MO7"/>
+      <c r="MP7"/>
+      <c r="MQ7"/>
+      <c r="MR7"/>
+      <c r="MS7"/>
+      <c r="MT7"/>
+      <c r="MU7"/>
+      <c r="MV7"/>
+      <c r="MW7"/>
+      <c r="MX7"/>
+      <c r="MY7"/>
+      <c r="MZ7"/>
+      <c r="NA7"/>
+      <c r="NB7"/>
+      <c r="NC7"/>
+      <c r="ND7"/>
+      <c r="NE7"/>
+      <c r="NF7"/>
+      <c r="NG7"/>
+      <c r="NH7"/>
+      <c r="NI7"/>
+      <c r="NJ7"/>
+      <c r="NK7"/>
+      <c r="NL7"/>
+      <c r="NM7"/>
+      <c r="NN7"/>
+      <c r="NO7"/>
+      <c r="NP7"/>
+      <c r="NQ7"/>
+      <c r="NR7"/>
+      <c r="NS7"/>
+      <c r="NT7"/>
+      <c r="NU7"/>
+      <c r="NV7"/>
+      <c r="NW7"/>
+      <c r="NX7"/>
+      <c r="NY7"/>
+      <c r="NZ7"/>
+      <c r="OA7"/>
+      <c r="OB7"/>
+      <c r="OC7"/>
+      <c r="OD7"/>
+      <c r="OE7"/>
+      <c r="OF7"/>
+      <c r="OG7"/>
+      <c r="OH7"/>
+      <c r="OI7"/>
+      <c r="OJ7"/>
+      <c r="OK7"/>
+      <c r="OL7"/>
+      <c r="OM7"/>
+      <c r="ON7"/>
+      <c r="OO7"/>
+      <c r="OP7"/>
+      <c r="OQ7"/>
+      <c r="OR7"/>
+      <c r="OS7"/>
+      <c r="OT7"/>
+      <c r="OU7"/>
+      <c r="OV7"/>
+      <c r="OW7"/>
+      <c r="OX7"/>
+      <c r="OY7"/>
+      <c r="OZ7"/>
+      <c r="PA7"/>
+      <c r="PB7"/>
+      <c r="PC7"/>
+      <c r="PD7"/>
+      <c r="PE7"/>
+      <c r="PF7"/>
+      <c r="PG7"/>
+      <c r="PH7"/>
+      <c r="PI7"/>
+      <c r="PJ7"/>
+      <c r="PK7"/>
+      <c r="PL7"/>
+      <c r="PM7"/>
+      <c r="PN7"/>
+      <c r="PO7"/>
+      <c r="PP7"/>
+      <c r="PQ7"/>
+      <c r="PR7"/>
+      <c r="PS7"/>
+      <c r="PT7"/>
+      <c r="PU7"/>
+      <c r="PV7"/>
+      <c r="PW7"/>
+      <c r="PX7"/>
+      <c r="PY7"/>
+      <c r="PZ7"/>
+      <c r="QA7"/>
+      <c r="QB7"/>
+      <c r="QC7"/>
+      <c r="QD7"/>
+      <c r="QE7"/>
+      <c r="QF7"/>
+      <c r="QG7"/>
+      <c r="QH7"/>
+      <c r="QI7"/>
+      <c r="QJ7"/>
+      <c r="QK7"/>
+      <c r="QL7"/>
+      <c r="QM7"/>
+      <c r="QN7"/>
+      <c r="QO7"/>
+      <c r="QP7"/>
+      <c r="QQ7"/>
+      <c r="QR7"/>
+      <c r="QS7"/>
+      <c r="QT7"/>
+      <c r="QU7"/>
+      <c r="QV7"/>
+      <c r="QW7"/>
+      <c r="QX7"/>
+      <c r="QY7"/>
+      <c r="QZ7"/>
+      <c r="RA7"/>
+      <c r="RB7"/>
+      <c r="RC7"/>
+      <c r="RD7"/>
+      <c r="RE7"/>
+      <c r="RF7"/>
+      <c r="RG7"/>
+      <c r="RH7"/>
+      <c r="RI7"/>
+      <c r="RJ7"/>
+      <c r="RK7"/>
+      <c r="RL7"/>
+      <c r="RM7"/>
+      <c r="RN7"/>
+      <c r="RO7"/>
+      <c r="RP7"/>
+      <c r="RQ7"/>
+      <c r="RR7"/>
+      <c r="RS7"/>
+      <c r="RT7"/>
+      <c r="RU7"/>
+      <c r="RV7"/>
+      <c r="RW7"/>
+      <c r="RX7"/>
+      <c r="RY7"/>
+      <c r="RZ7"/>
+      <c r="SA7"/>
+      <c r="SB7"/>
+      <c r="SC7"/>
+      <c r="SD7"/>
+      <c r="SE7"/>
+      <c r="SF7"/>
+      <c r="SG7"/>
+      <c r="SH7"/>
+      <c r="SI7"/>
+      <c r="SJ7"/>
+      <c r="SK7"/>
+      <c r="SL7"/>
+      <c r="SM7"/>
+      <c r="SN7"/>
+      <c r="SO7"/>
+      <c r="SP7"/>
+      <c r="SQ7"/>
+      <c r="SR7"/>
+      <c r="SS7"/>
+      <c r="ST7"/>
+      <c r="SU7"/>
+      <c r="SV7"/>
+      <c r="SW7"/>
+      <c r="SX7"/>
+      <c r="SY7"/>
+      <c r="SZ7"/>
+      <c r="TA7"/>
+      <c r="TB7"/>
+      <c r="TC7"/>
+      <c r="TD7"/>
+      <c r="TE7"/>
+      <c r="TF7"/>
+      <c r="TG7"/>
+      <c r="TH7"/>
+      <c r="TI7"/>
+      <c r="TJ7"/>
+      <c r="TK7"/>
+      <c r="TL7"/>
+      <c r="TM7"/>
+      <c r="TN7"/>
+      <c r="TO7"/>
+      <c r="TP7"/>
+      <c r="TQ7"/>
+      <c r="TR7"/>
+      <c r="TS7"/>
+      <c r="TT7"/>
+      <c r="TU7"/>
+      <c r="TV7"/>
+      <c r="TW7"/>
+      <c r="TX7"/>
+      <c r="TY7"/>
+      <c r="TZ7"/>
+      <c r="UA7"/>
+      <c r="UB7"/>
+      <c r="UC7"/>
+      <c r="UD7"/>
+      <c r="UE7"/>
+      <c r="UF7"/>
+      <c r="UG7"/>
+      <c r="UH7"/>
+      <c r="UI7"/>
+      <c r="UJ7"/>
+      <c r="UK7"/>
+      <c r="UL7"/>
+      <c r="UM7"/>
+      <c r="UN7"/>
+      <c r="UO7"/>
+      <c r="UP7"/>
+      <c r="UQ7"/>
+      <c r="UR7"/>
+      <c r="US7"/>
+      <c r="UT7"/>
+      <c r="UU7"/>
+      <c r="UV7"/>
+      <c r="UW7"/>
+      <c r="UX7"/>
+      <c r="UY7"/>
+      <c r="UZ7"/>
+      <c r="VA7"/>
+      <c r="VB7"/>
+      <c r="VC7"/>
+      <c r="VD7"/>
+      <c r="VE7"/>
+      <c r="VF7"/>
+      <c r="VG7"/>
+      <c r="VH7"/>
+      <c r="VI7"/>
+      <c r="VJ7"/>
+      <c r="VK7"/>
+      <c r="VL7"/>
+      <c r="VM7"/>
+      <c r="VN7"/>
+      <c r="VO7"/>
+      <c r="VP7"/>
+      <c r="VQ7"/>
+      <c r="VR7"/>
+      <c r="VS7"/>
+      <c r="VT7"/>
+      <c r="VU7"/>
+      <c r="VV7"/>
+      <c r="VW7"/>
+      <c r="VX7"/>
+      <c r="VY7"/>
+      <c r="VZ7"/>
+      <c r="WA7"/>
+      <c r="WB7"/>
+      <c r="WC7"/>
+      <c r="WD7"/>
+      <c r="WE7"/>
+      <c r="WF7"/>
+      <c r="WG7"/>
+      <c r="WH7"/>
+      <c r="WI7"/>
+      <c r="WJ7"/>
+      <c r="WK7"/>
+      <c r="WL7"/>
+      <c r="WM7"/>
+      <c r="WN7"/>
+      <c r="WO7"/>
+      <c r="WP7"/>
+      <c r="WQ7"/>
+      <c r="WR7"/>
+      <c r="WS7"/>
+      <c r="WT7"/>
+      <c r="WU7"/>
+      <c r="WV7"/>
+      <c r="WW7"/>
+      <c r="WX7"/>
+      <c r="WY7"/>
+      <c r="WZ7"/>
+      <c r="XA7"/>
+      <c r="XB7"/>
+      <c r="XC7"/>
+      <c r="XD7"/>
+      <c r="XE7"/>
+      <c r="XF7"/>
+      <c r="XG7"/>
+      <c r="XH7"/>
+      <c r="XI7"/>
+      <c r="XJ7"/>
+      <c r="XK7"/>
+      <c r="XL7"/>
+      <c r="XM7"/>
+      <c r="XN7"/>
+      <c r="XO7"/>
+      <c r="XP7"/>
+      <c r="XQ7"/>
+      <c r="XR7"/>
+      <c r="XS7"/>
+      <c r="XT7"/>
+      <c r="XU7"/>
+      <c r="XV7"/>
+      <c r="XW7"/>
+      <c r="XX7"/>
+      <c r="XY7"/>
+      <c r="XZ7"/>
+      <c r="YA7"/>
+      <c r="YB7"/>
+      <c r="YC7"/>
+      <c r="YD7"/>
+      <c r="YE7"/>
+      <c r="YF7"/>
+      <c r="YG7"/>
+      <c r="YH7"/>
+      <c r="YI7"/>
+      <c r="YJ7"/>
+      <c r="YK7"/>
+      <c r="YL7"/>
+      <c r="YM7"/>
+      <c r="YN7"/>
+      <c r="YO7"/>
+      <c r="YP7"/>
+      <c r="YQ7"/>
+      <c r="YR7"/>
+      <c r="YS7"/>
+      <c r="YT7"/>
+      <c r="YU7"/>
+      <c r="YV7"/>
+      <c r="YW7"/>
+      <c r="YX7"/>
+      <c r="YY7"/>
+      <c r="YZ7"/>
+      <c r="ZA7"/>
+      <c r="ZB7"/>
+      <c r="ZC7"/>
+      <c r="ZD7"/>
+      <c r="ZE7"/>
+      <c r="ZF7"/>
+      <c r="ZG7"/>
+      <c r="ZH7"/>
+      <c r="ZI7"/>
+      <c r="ZJ7"/>
+      <c r="ZK7"/>
+      <c r="ZL7"/>
+      <c r="ZM7"/>
+      <c r="ZN7"/>
+      <c r="ZO7"/>
+      <c r="ZP7"/>
+      <c r="ZQ7"/>
+      <c r="ZR7"/>
+      <c r="ZS7"/>
+      <c r="ZT7"/>
+      <c r="ZU7"/>
+      <c r="ZV7"/>
+      <c r="ZW7"/>
+      <c r="ZX7"/>
+      <c r="ZY7"/>
+      <c r="ZZ7"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
@@ -668,23 +5625,23 @@
       <c r="AAA10" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    <cfRule type="beginsWith" dxfId="6" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/artifact/data/ws-01.data.xlsx
+++ b/artifact/data/ws-01.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C0E4B-660D-794D-9591-AFE008C21512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996CBB48-7BD4-0C4E-9906-F68DECCBB9BC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="20480" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21160" windowWidth="38400" windowHeight="7040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,15 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,12 +54,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>800</t>
   </si>
   <si>
     <t>,</t>
@@ -66,19 +68,10 @@
     <t>false</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
   </si>
   <si>
     <t>nexial.failFast</t>
@@ -216,7 +209,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -279,71 +272,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -636,9 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -651,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1360,10 +1290,10 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2069,10 +1999,10 @@
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2280,7 +2210,7 @@
       <c r="GX3"/>
       <c r="GY3"/>
       <c r="GZ3"/>
-      <c r="HA3" s="6"/>
+      <c r="HA3" s="4"/>
       <c r="HB3"/>
       <c r="HC3"/>
       <c r="HD3"/>
@@ -2774,11 +2704,11 @@
       <c r="ZX3"/>
       <c r="ZY3"/>
       <c r="ZZ3"/>
-      <c r="AAA3" s="6"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -3487,10 +3417,10 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -4195,1453 +4125,35 @@
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
-      <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6"/>
-      <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
-      <c r="BM6"/>
-      <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
-      <c r="BQ6"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
-      <c r="BV6"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
-      <c r="BY6"/>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
-      <c r="CG6"/>
-      <c r="CH6"/>
-      <c r="CI6"/>
-      <c r="CJ6"/>
-      <c r="CK6"/>
-      <c r="CL6"/>
-      <c r="CM6"/>
-      <c r="CN6"/>
-      <c r="CO6"/>
-      <c r="CP6"/>
-      <c r="CQ6"/>
-      <c r="CR6"/>
-      <c r="CS6"/>
-      <c r="CT6"/>
-      <c r="CU6"/>
-      <c r="CV6"/>
-      <c r="CW6"/>
-      <c r="CX6"/>
-      <c r="CY6"/>
-      <c r="CZ6"/>
-      <c r="DA6"/>
-      <c r="DB6"/>
-      <c r="DC6"/>
-      <c r="DD6"/>
-      <c r="DE6"/>
-      <c r="DF6"/>
-      <c r="DG6"/>
-      <c r="DH6"/>
-      <c r="DI6"/>
-      <c r="DJ6"/>
-      <c r="DK6"/>
-      <c r="DL6"/>
-      <c r="DM6"/>
-      <c r="DN6"/>
-      <c r="DO6"/>
-      <c r="DP6"/>
-      <c r="DQ6"/>
-      <c r="DR6"/>
-      <c r="DS6"/>
-      <c r="DT6"/>
-      <c r="DU6"/>
-      <c r="DV6"/>
-      <c r="DW6"/>
-      <c r="DX6"/>
-      <c r="DY6"/>
-      <c r="DZ6"/>
-      <c r="EA6"/>
-      <c r="EB6"/>
-      <c r="EC6"/>
-      <c r="ED6"/>
-      <c r="EE6"/>
-      <c r="EF6"/>
-      <c r="EG6"/>
-      <c r="EH6"/>
-      <c r="EI6"/>
-      <c r="EJ6"/>
-      <c r="EK6"/>
-      <c r="EL6"/>
-      <c r="EM6"/>
-      <c r="EN6"/>
-      <c r="EO6"/>
-      <c r="EP6"/>
-      <c r="EQ6"/>
-      <c r="ER6"/>
-      <c r="ES6"/>
-      <c r="ET6"/>
-      <c r="EU6"/>
-      <c r="EV6"/>
-      <c r="EW6"/>
-      <c r="EX6"/>
-      <c r="EY6"/>
-      <c r="EZ6"/>
-      <c r="FA6"/>
-      <c r="FB6"/>
-      <c r="FC6"/>
-      <c r="FD6"/>
-      <c r="FE6"/>
-      <c r="FF6"/>
-      <c r="FG6"/>
-      <c r="FH6"/>
-      <c r="FI6"/>
-      <c r="FJ6"/>
-      <c r="FK6"/>
-      <c r="FL6"/>
-      <c r="FM6"/>
-      <c r="FN6"/>
-      <c r="FO6"/>
-      <c r="FP6"/>
-      <c r="FQ6"/>
-      <c r="FR6"/>
-      <c r="FS6"/>
-      <c r="FT6"/>
-      <c r="FU6"/>
-      <c r="FV6"/>
-      <c r="FW6"/>
-      <c r="FX6"/>
-      <c r="FY6"/>
-      <c r="FZ6"/>
-      <c r="GA6"/>
-      <c r="GB6"/>
-      <c r="GC6"/>
-      <c r="GD6"/>
-      <c r="GE6"/>
-      <c r="GF6"/>
-      <c r="GG6"/>
-      <c r="GH6"/>
-      <c r="GI6"/>
-      <c r="GJ6"/>
-      <c r="GK6"/>
-      <c r="GL6"/>
-      <c r="GM6"/>
-      <c r="GN6"/>
-      <c r="GO6"/>
-      <c r="GP6"/>
-      <c r="GQ6"/>
-      <c r="GR6"/>
-      <c r="GS6"/>
-      <c r="GT6"/>
-      <c r="GU6"/>
-      <c r="GV6"/>
-      <c r="GW6"/>
-      <c r="GX6"/>
-      <c r="GY6"/>
-      <c r="GZ6"/>
       <c r="HA6" s="4"/>
-      <c r="HB6"/>
-      <c r="HC6"/>
-      <c r="HD6"/>
-      <c r="HE6"/>
-      <c r="HF6"/>
-      <c r="HG6"/>
-      <c r="HH6"/>
-      <c r="HI6"/>
-      <c r="HJ6"/>
-      <c r="HK6"/>
-      <c r="HL6"/>
-      <c r="HM6"/>
-      <c r="HN6"/>
-      <c r="HO6"/>
-      <c r="HP6"/>
-      <c r="HQ6"/>
-      <c r="HR6"/>
-      <c r="HS6"/>
-      <c r="HT6"/>
-      <c r="HU6"/>
-      <c r="HV6"/>
-      <c r="HW6"/>
-      <c r="HX6"/>
-      <c r="HY6"/>
-      <c r="HZ6"/>
-      <c r="IA6"/>
-      <c r="IB6"/>
-      <c r="IC6"/>
-      <c r="ID6"/>
-      <c r="IE6"/>
-      <c r="IF6"/>
-      <c r="IG6"/>
-      <c r="IH6"/>
-      <c r="II6"/>
-      <c r="IJ6"/>
-      <c r="IK6"/>
-      <c r="IL6"/>
-      <c r="IM6"/>
-      <c r="IN6"/>
-      <c r="IO6"/>
-      <c r="IP6"/>
-      <c r="IQ6"/>
-      <c r="IR6"/>
-      <c r="IS6"/>
-      <c r="IT6"/>
-      <c r="IU6"/>
-      <c r="IV6"/>
-      <c r="IW6"/>
-      <c r="IX6"/>
-      <c r="IY6"/>
-      <c r="IZ6"/>
-      <c r="JA6"/>
-      <c r="JB6"/>
-      <c r="JC6"/>
-      <c r="JD6"/>
-      <c r="JE6"/>
-      <c r="JF6"/>
-      <c r="JG6"/>
-      <c r="JH6"/>
-      <c r="JI6"/>
-      <c r="JJ6"/>
-      <c r="JK6"/>
-      <c r="JL6"/>
-      <c r="JM6"/>
-      <c r="JN6"/>
-      <c r="JO6"/>
-      <c r="JP6"/>
-      <c r="JQ6"/>
-      <c r="JR6"/>
-      <c r="JS6"/>
-      <c r="JT6"/>
-      <c r="JU6"/>
-      <c r="JV6"/>
-      <c r="JW6"/>
-      <c r="JX6"/>
-      <c r="JY6"/>
-      <c r="JZ6"/>
-      <c r="KA6"/>
-      <c r="KB6"/>
-      <c r="KC6"/>
-      <c r="KD6"/>
-      <c r="KE6"/>
-      <c r="KF6"/>
-      <c r="KG6"/>
-      <c r="KH6"/>
-      <c r="KI6"/>
-      <c r="KJ6"/>
-      <c r="KK6"/>
-      <c r="KL6"/>
-      <c r="KM6"/>
-      <c r="KN6"/>
-      <c r="KO6"/>
-      <c r="KP6"/>
-      <c r="KQ6"/>
-      <c r="KR6"/>
-      <c r="KS6"/>
-      <c r="KT6"/>
-      <c r="KU6"/>
-      <c r="KV6"/>
-      <c r="KW6"/>
-      <c r="KX6"/>
-      <c r="KY6"/>
-      <c r="KZ6"/>
-      <c r="LA6"/>
-      <c r="LB6"/>
-      <c r="LC6"/>
-      <c r="LD6"/>
-      <c r="LE6"/>
-      <c r="LF6"/>
-      <c r="LG6"/>
-      <c r="LH6"/>
-      <c r="LI6"/>
-      <c r="LJ6"/>
-      <c r="LK6"/>
-      <c r="LL6"/>
-      <c r="LM6"/>
-      <c r="LN6"/>
-      <c r="LO6"/>
-      <c r="LP6"/>
-      <c r="LQ6"/>
-      <c r="LR6"/>
-      <c r="LS6"/>
-      <c r="LT6"/>
-      <c r="LU6"/>
-      <c r="LV6"/>
-      <c r="LW6"/>
-      <c r="LX6"/>
-      <c r="LY6"/>
-      <c r="LZ6"/>
-      <c r="MA6"/>
-      <c r="MB6"/>
-      <c r="MC6"/>
-      <c r="MD6"/>
-      <c r="ME6"/>
-      <c r="MF6"/>
-      <c r="MG6"/>
-      <c r="MH6"/>
-      <c r="MI6"/>
-      <c r="MJ6"/>
-      <c r="MK6"/>
-      <c r="ML6"/>
-      <c r="MM6"/>
-      <c r="MN6"/>
-      <c r="MO6"/>
-      <c r="MP6"/>
-      <c r="MQ6"/>
-      <c r="MR6"/>
-      <c r="MS6"/>
-      <c r="MT6"/>
-      <c r="MU6"/>
-      <c r="MV6"/>
-      <c r="MW6"/>
-      <c r="MX6"/>
-      <c r="MY6"/>
-      <c r="MZ6"/>
-      <c r="NA6"/>
-      <c r="NB6"/>
-      <c r="NC6"/>
-      <c r="ND6"/>
-      <c r="NE6"/>
-      <c r="NF6"/>
-      <c r="NG6"/>
-      <c r="NH6"/>
-      <c r="NI6"/>
-      <c r="NJ6"/>
-      <c r="NK6"/>
-      <c r="NL6"/>
-      <c r="NM6"/>
-      <c r="NN6"/>
-      <c r="NO6"/>
-      <c r="NP6"/>
-      <c r="NQ6"/>
-      <c r="NR6"/>
-      <c r="NS6"/>
-      <c r="NT6"/>
-      <c r="NU6"/>
-      <c r="NV6"/>
-      <c r="NW6"/>
-      <c r="NX6"/>
-      <c r="NY6"/>
-      <c r="NZ6"/>
-      <c r="OA6"/>
-      <c r="OB6"/>
-      <c r="OC6"/>
-      <c r="OD6"/>
-      <c r="OE6"/>
-      <c r="OF6"/>
-      <c r="OG6"/>
-      <c r="OH6"/>
-      <c r="OI6"/>
-      <c r="OJ6"/>
-      <c r="OK6"/>
-      <c r="OL6"/>
-      <c r="OM6"/>
-      <c r="ON6"/>
-      <c r="OO6"/>
-      <c r="OP6"/>
-      <c r="OQ6"/>
-      <c r="OR6"/>
-      <c r="OS6"/>
-      <c r="OT6"/>
-      <c r="OU6"/>
-      <c r="OV6"/>
-      <c r="OW6"/>
-      <c r="OX6"/>
-      <c r="OY6"/>
-      <c r="OZ6"/>
-      <c r="PA6"/>
-      <c r="PB6"/>
-      <c r="PC6"/>
-      <c r="PD6"/>
-      <c r="PE6"/>
-      <c r="PF6"/>
-      <c r="PG6"/>
-      <c r="PH6"/>
-      <c r="PI6"/>
-      <c r="PJ6"/>
-      <c r="PK6"/>
-      <c r="PL6"/>
-      <c r="PM6"/>
-      <c r="PN6"/>
-      <c r="PO6"/>
-      <c r="PP6"/>
-      <c r="PQ6"/>
-      <c r="PR6"/>
-      <c r="PS6"/>
-      <c r="PT6"/>
-      <c r="PU6"/>
-      <c r="PV6"/>
-      <c r="PW6"/>
-      <c r="PX6"/>
-      <c r="PY6"/>
-      <c r="PZ6"/>
-      <c r="QA6"/>
-      <c r="QB6"/>
-      <c r="QC6"/>
-      <c r="QD6"/>
-      <c r="QE6"/>
-      <c r="QF6"/>
-      <c r="QG6"/>
-      <c r="QH6"/>
-      <c r="QI6"/>
-      <c r="QJ6"/>
-      <c r="QK6"/>
-      <c r="QL6"/>
-      <c r="QM6"/>
-      <c r="QN6"/>
-      <c r="QO6"/>
-      <c r="QP6"/>
-      <c r="QQ6"/>
-      <c r="QR6"/>
-      <c r="QS6"/>
-      <c r="QT6"/>
-      <c r="QU6"/>
-      <c r="QV6"/>
-      <c r="QW6"/>
-      <c r="QX6"/>
-      <c r="QY6"/>
-      <c r="QZ6"/>
-      <c r="RA6"/>
-      <c r="RB6"/>
-      <c r="RC6"/>
-      <c r="RD6"/>
-      <c r="RE6"/>
-      <c r="RF6"/>
-      <c r="RG6"/>
-      <c r="RH6"/>
-      <c r="RI6"/>
-      <c r="RJ6"/>
-      <c r="RK6"/>
-      <c r="RL6"/>
-      <c r="RM6"/>
-      <c r="RN6"/>
-      <c r="RO6"/>
-      <c r="RP6"/>
-      <c r="RQ6"/>
-      <c r="RR6"/>
-      <c r="RS6"/>
-      <c r="RT6"/>
-      <c r="RU6"/>
-      <c r="RV6"/>
-      <c r="RW6"/>
-      <c r="RX6"/>
-      <c r="RY6"/>
-      <c r="RZ6"/>
-      <c r="SA6"/>
-      <c r="SB6"/>
-      <c r="SC6"/>
-      <c r="SD6"/>
-      <c r="SE6"/>
-      <c r="SF6"/>
-      <c r="SG6"/>
-      <c r="SH6"/>
-      <c r="SI6"/>
-      <c r="SJ6"/>
-      <c r="SK6"/>
-      <c r="SL6"/>
-      <c r="SM6"/>
-      <c r="SN6"/>
-      <c r="SO6"/>
-      <c r="SP6"/>
-      <c r="SQ6"/>
-      <c r="SR6"/>
-      <c r="SS6"/>
-      <c r="ST6"/>
-      <c r="SU6"/>
-      <c r="SV6"/>
-      <c r="SW6"/>
-      <c r="SX6"/>
-      <c r="SY6"/>
-      <c r="SZ6"/>
-      <c r="TA6"/>
-      <c r="TB6"/>
-      <c r="TC6"/>
-      <c r="TD6"/>
-      <c r="TE6"/>
-      <c r="TF6"/>
-      <c r="TG6"/>
-      <c r="TH6"/>
-      <c r="TI6"/>
-      <c r="TJ6"/>
-      <c r="TK6"/>
-      <c r="TL6"/>
-      <c r="TM6"/>
-      <c r="TN6"/>
-      <c r="TO6"/>
-      <c r="TP6"/>
-      <c r="TQ6"/>
-      <c r="TR6"/>
-      <c r="TS6"/>
-      <c r="TT6"/>
-      <c r="TU6"/>
-      <c r="TV6"/>
-      <c r="TW6"/>
-      <c r="TX6"/>
-      <c r="TY6"/>
-      <c r="TZ6"/>
-      <c r="UA6"/>
-      <c r="UB6"/>
-      <c r="UC6"/>
-      <c r="UD6"/>
-      <c r="UE6"/>
-      <c r="UF6"/>
-      <c r="UG6"/>
-      <c r="UH6"/>
-      <c r="UI6"/>
-      <c r="UJ6"/>
-      <c r="UK6"/>
-      <c r="UL6"/>
-      <c r="UM6"/>
-      <c r="UN6"/>
-      <c r="UO6"/>
-      <c r="UP6"/>
-      <c r="UQ6"/>
-      <c r="UR6"/>
-      <c r="US6"/>
-      <c r="UT6"/>
-      <c r="UU6"/>
-      <c r="UV6"/>
-      <c r="UW6"/>
-      <c r="UX6"/>
-      <c r="UY6"/>
-      <c r="UZ6"/>
-      <c r="VA6"/>
-      <c r="VB6"/>
-      <c r="VC6"/>
-      <c r="VD6"/>
-      <c r="VE6"/>
-      <c r="VF6"/>
-      <c r="VG6"/>
-      <c r="VH6"/>
-      <c r="VI6"/>
-      <c r="VJ6"/>
-      <c r="VK6"/>
-      <c r="VL6"/>
-      <c r="VM6"/>
-      <c r="VN6"/>
-      <c r="VO6"/>
-      <c r="VP6"/>
-      <c r="VQ6"/>
-      <c r="VR6"/>
-      <c r="VS6"/>
-      <c r="VT6"/>
-      <c r="VU6"/>
-      <c r="VV6"/>
-      <c r="VW6"/>
-      <c r="VX6"/>
-      <c r="VY6"/>
-      <c r="VZ6"/>
-      <c r="WA6"/>
-      <c r="WB6"/>
-      <c r="WC6"/>
-      <c r="WD6"/>
-      <c r="WE6"/>
-      <c r="WF6"/>
-      <c r="WG6"/>
-      <c r="WH6"/>
-      <c r="WI6"/>
-      <c r="WJ6"/>
-      <c r="WK6"/>
-      <c r="WL6"/>
-      <c r="WM6"/>
-      <c r="WN6"/>
-      <c r="WO6"/>
-      <c r="WP6"/>
-      <c r="WQ6"/>
-      <c r="WR6"/>
-      <c r="WS6"/>
-      <c r="WT6"/>
-      <c r="WU6"/>
-      <c r="WV6"/>
-      <c r="WW6"/>
-      <c r="WX6"/>
-      <c r="WY6"/>
-      <c r="WZ6"/>
-      <c r="XA6"/>
-      <c r="XB6"/>
-      <c r="XC6"/>
-      <c r="XD6"/>
-      <c r="XE6"/>
-      <c r="XF6"/>
-      <c r="XG6"/>
-      <c r="XH6"/>
-      <c r="XI6"/>
-      <c r="XJ6"/>
-      <c r="XK6"/>
-      <c r="XL6"/>
-      <c r="XM6"/>
-      <c r="XN6"/>
-      <c r="XO6"/>
-      <c r="XP6"/>
-      <c r="XQ6"/>
-      <c r="XR6"/>
-      <c r="XS6"/>
-      <c r="XT6"/>
-      <c r="XU6"/>
-      <c r="XV6"/>
-      <c r="XW6"/>
-      <c r="XX6"/>
-      <c r="XY6"/>
-      <c r="XZ6"/>
-      <c r="YA6"/>
-      <c r="YB6"/>
-      <c r="YC6"/>
-      <c r="YD6"/>
-      <c r="YE6"/>
-      <c r="YF6"/>
-      <c r="YG6"/>
-      <c r="YH6"/>
-      <c r="YI6"/>
-      <c r="YJ6"/>
-      <c r="YK6"/>
-      <c r="YL6"/>
-      <c r="YM6"/>
-      <c r="YN6"/>
-      <c r="YO6"/>
-      <c r="YP6"/>
-      <c r="YQ6"/>
-      <c r="YR6"/>
-      <c r="YS6"/>
-      <c r="YT6"/>
-      <c r="YU6"/>
-      <c r="YV6"/>
-      <c r="YW6"/>
-      <c r="YX6"/>
-      <c r="YY6"/>
-      <c r="YZ6"/>
-      <c r="ZA6"/>
-      <c r="ZB6"/>
-      <c r="ZC6"/>
-      <c r="ZD6"/>
-      <c r="ZE6"/>
-      <c r="ZF6"/>
-      <c r="ZG6"/>
-      <c r="ZH6"/>
-      <c r="ZI6"/>
-      <c r="ZJ6"/>
-      <c r="ZK6"/>
-      <c r="ZL6"/>
-      <c r="ZM6"/>
-      <c r="ZN6"/>
-      <c r="ZO6"/>
-      <c r="ZP6"/>
-      <c r="ZQ6"/>
-      <c r="ZR6"/>
-      <c r="ZS6"/>
-      <c r="ZT6"/>
-      <c r="ZU6"/>
-      <c r="ZV6"/>
-      <c r="ZW6"/>
-      <c r="ZX6"/>
-      <c r="ZY6"/>
-      <c r="ZZ6"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
-      <c r="BF7"/>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
-      <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
-      <c r="BY7"/>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
-      <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
-      <c r="CZ7"/>
-      <c r="DA7"/>
-      <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7"/>
-      <c r="DH7"/>
-      <c r="DI7"/>
-      <c r="DJ7"/>
-      <c r="DK7"/>
-      <c r="DL7"/>
-      <c r="DM7"/>
-      <c r="DN7"/>
-      <c r="DO7"/>
-      <c r="DP7"/>
-      <c r="DQ7"/>
-      <c r="DR7"/>
-      <c r="DS7"/>
-      <c r="DT7"/>
-      <c r="DU7"/>
-      <c r="DV7"/>
-      <c r="DW7"/>
-      <c r="DX7"/>
-      <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
-      <c r="EC7"/>
-      <c r="ED7"/>
-      <c r="EE7"/>
-      <c r="EF7"/>
-      <c r="EG7"/>
-      <c r="EH7"/>
-      <c r="EI7"/>
-      <c r="EJ7"/>
-      <c r="EK7"/>
-      <c r="EL7"/>
-      <c r="EM7"/>
-      <c r="EN7"/>
-      <c r="EO7"/>
-      <c r="EP7"/>
-      <c r="EQ7"/>
-      <c r="ER7"/>
-      <c r="ES7"/>
-      <c r="ET7"/>
-      <c r="EU7"/>
-      <c r="EV7"/>
-      <c r="EW7"/>
-      <c r="EX7"/>
-      <c r="EY7"/>
-      <c r="EZ7"/>
-      <c r="FA7"/>
-      <c r="FB7"/>
-      <c r="FC7"/>
-      <c r="FD7"/>
-      <c r="FE7"/>
-      <c r="FF7"/>
-      <c r="FG7"/>
-      <c r="FH7"/>
-      <c r="FI7"/>
-      <c r="FJ7"/>
-      <c r="FK7"/>
-      <c r="FL7"/>
-      <c r="FM7"/>
-      <c r="FN7"/>
-      <c r="FO7"/>
-      <c r="FP7"/>
-      <c r="FQ7"/>
-      <c r="FR7"/>
-      <c r="FS7"/>
-      <c r="FT7"/>
-      <c r="FU7"/>
-      <c r="FV7"/>
-      <c r="FW7"/>
-      <c r="FX7"/>
-      <c r="FY7"/>
-      <c r="FZ7"/>
-      <c r="GA7"/>
-      <c r="GB7"/>
-      <c r="GC7"/>
-      <c r="GD7"/>
-      <c r="GE7"/>
-      <c r="GF7"/>
-      <c r="GG7"/>
-      <c r="GH7"/>
-      <c r="GI7"/>
-      <c r="GJ7"/>
-      <c r="GK7"/>
-      <c r="GL7"/>
-      <c r="GM7"/>
-      <c r="GN7"/>
-      <c r="GO7"/>
-      <c r="GP7"/>
-      <c r="GQ7"/>
-      <c r="GR7"/>
-      <c r="GS7"/>
-      <c r="GT7"/>
-      <c r="GU7"/>
-      <c r="GV7"/>
-      <c r="GW7"/>
-      <c r="GX7"/>
-      <c r="GY7"/>
-      <c r="GZ7"/>
       <c r="HA7" s="4"/>
-      <c r="HB7"/>
-      <c r="HC7"/>
-      <c r="HD7"/>
-      <c r="HE7"/>
-      <c r="HF7"/>
-      <c r="HG7"/>
-      <c r="HH7"/>
-      <c r="HI7"/>
-      <c r="HJ7"/>
-      <c r="HK7"/>
-      <c r="HL7"/>
-      <c r="HM7"/>
-      <c r="HN7"/>
-      <c r="HO7"/>
-      <c r="HP7"/>
-      <c r="HQ7"/>
-      <c r="HR7"/>
-      <c r="HS7"/>
-      <c r="HT7"/>
-      <c r="HU7"/>
-      <c r="HV7"/>
-      <c r="HW7"/>
-      <c r="HX7"/>
-      <c r="HY7"/>
-      <c r="HZ7"/>
-      <c r="IA7"/>
-      <c r="IB7"/>
-      <c r="IC7"/>
-      <c r="ID7"/>
-      <c r="IE7"/>
-      <c r="IF7"/>
-      <c r="IG7"/>
-      <c r="IH7"/>
-      <c r="II7"/>
-      <c r="IJ7"/>
-      <c r="IK7"/>
-      <c r="IL7"/>
-      <c r="IM7"/>
-      <c r="IN7"/>
-      <c r="IO7"/>
-      <c r="IP7"/>
-      <c r="IQ7"/>
-      <c r="IR7"/>
-      <c r="IS7"/>
-      <c r="IT7"/>
-      <c r="IU7"/>
-      <c r="IV7"/>
-      <c r="IW7"/>
-      <c r="IX7"/>
-      <c r="IY7"/>
-      <c r="IZ7"/>
-      <c r="JA7"/>
-      <c r="JB7"/>
-      <c r="JC7"/>
-      <c r="JD7"/>
-      <c r="JE7"/>
-      <c r="JF7"/>
-      <c r="JG7"/>
-      <c r="JH7"/>
-      <c r="JI7"/>
-      <c r="JJ7"/>
-      <c r="JK7"/>
-      <c r="JL7"/>
-      <c r="JM7"/>
-      <c r="JN7"/>
-      <c r="JO7"/>
-      <c r="JP7"/>
-      <c r="JQ7"/>
-      <c r="JR7"/>
-      <c r="JS7"/>
-      <c r="JT7"/>
-      <c r="JU7"/>
-      <c r="JV7"/>
-      <c r="JW7"/>
-      <c r="JX7"/>
-      <c r="JY7"/>
-      <c r="JZ7"/>
-      <c r="KA7"/>
-      <c r="KB7"/>
-      <c r="KC7"/>
-      <c r="KD7"/>
-      <c r="KE7"/>
-      <c r="KF7"/>
-      <c r="KG7"/>
-      <c r="KH7"/>
-      <c r="KI7"/>
-      <c r="KJ7"/>
-      <c r="KK7"/>
-      <c r="KL7"/>
-      <c r="KM7"/>
-      <c r="KN7"/>
-      <c r="KO7"/>
-      <c r="KP7"/>
-      <c r="KQ7"/>
-      <c r="KR7"/>
-      <c r="KS7"/>
-      <c r="KT7"/>
-      <c r="KU7"/>
-      <c r="KV7"/>
-      <c r="KW7"/>
-      <c r="KX7"/>
-      <c r="KY7"/>
-      <c r="KZ7"/>
-      <c r="LA7"/>
-      <c r="LB7"/>
-      <c r="LC7"/>
-      <c r="LD7"/>
-      <c r="LE7"/>
-      <c r="LF7"/>
-      <c r="LG7"/>
-      <c r="LH7"/>
-      <c r="LI7"/>
-      <c r="LJ7"/>
-      <c r="LK7"/>
-      <c r="LL7"/>
-      <c r="LM7"/>
-      <c r="LN7"/>
-      <c r="LO7"/>
-      <c r="LP7"/>
-      <c r="LQ7"/>
-      <c r="LR7"/>
-      <c r="LS7"/>
-      <c r="LT7"/>
-      <c r="LU7"/>
-      <c r="LV7"/>
-      <c r="LW7"/>
-      <c r="LX7"/>
-      <c r="LY7"/>
-      <c r="LZ7"/>
-      <c r="MA7"/>
-      <c r="MB7"/>
-      <c r="MC7"/>
-      <c r="MD7"/>
-      <c r="ME7"/>
-      <c r="MF7"/>
-      <c r="MG7"/>
-      <c r="MH7"/>
-      <c r="MI7"/>
-      <c r="MJ7"/>
-      <c r="MK7"/>
-      <c r="ML7"/>
-      <c r="MM7"/>
-      <c r="MN7"/>
-      <c r="MO7"/>
-      <c r="MP7"/>
-      <c r="MQ7"/>
-      <c r="MR7"/>
-      <c r="MS7"/>
-      <c r="MT7"/>
-      <c r="MU7"/>
-      <c r="MV7"/>
-      <c r="MW7"/>
-      <c r="MX7"/>
-      <c r="MY7"/>
-      <c r="MZ7"/>
-      <c r="NA7"/>
-      <c r="NB7"/>
-      <c r="NC7"/>
-      <c r="ND7"/>
-      <c r="NE7"/>
-      <c r="NF7"/>
-      <c r="NG7"/>
-      <c r="NH7"/>
-      <c r="NI7"/>
-      <c r="NJ7"/>
-      <c r="NK7"/>
-      <c r="NL7"/>
-      <c r="NM7"/>
-      <c r="NN7"/>
-      <c r="NO7"/>
-      <c r="NP7"/>
-      <c r="NQ7"/>
-      <c r="NR7"/>
-      <c r="NS7"/>
-      <c r="NT7"/>
-      <c r="NU7"/>
-      <c r="NV7"/>
-      <c r="NW7"/>
-      <c r="NX7"/>
-      <c r="NY7"/>
-      <c r="NZ7"/>
-      <c r="OA7"/>
-      <c r="OB7"/>
-      <c r="OC7"/>
-      <c r="OD7"/>
-      <c r="OE7"/>
-      <c r="OF7"/>
-      <c r="OG7"/>
-      <c r="OH7"/>
-      <c r="OI7"/>
-      <c r="OJ7"/>
-      <c r="OK7"/>
-      <c r="OL7"/>
-      <c r="OM7"/>
-      <c r="ON7"/>
-      <c r="OO7"/>
-      <c r="OP7"/>
-      <c r="OQ7"/>
-      <c r="OR7"/>
-      <c r="OS7"/>
-      <c r="OT7"/>
-      <c r="OU7"/>
-      <c r="OV7"/>
-      <c r="OW7"/>
-      <c r="OX7"/>
-      <c r="OY7"/>
-      <c r="OZ7"/>
-      <c r="PA7"/>
-      <c r="PB7"/>
-      <c r="PC7"/>
-      <c r="PD7"/>
-      <c r="PE7"/>
-      <c r="PF7"/>
-      <c r="PG7"/>
-      <c r="PH7"/>
-      <c r="PI7"/>
-      <c r="PJ7"/>
-      <c r="PK7"/>
-      <c r="PL7"/>
-      <c r="PM7"/>
-      <c r="PN7"/>
-      <c r="PO7"/>
-      <c r="PP7"/>
-      <c r="PQ7"/>
-      <c r="PR7"/>
-      <c r="PS7"/>
-      <c r="PT7"/>
-      <c r="PU7"/>
-      <c r="PV7"/>
-      <c r="PW7"/>
-      <c r="PX7"/>
-      <c r="PY7"/>
-      <c r="PZ7"/>
-      <c r="QA7"/>
-      <c r="QB7"/>
-      <c r="QC7"/>
-      <c r="QD7"/>
-      <c r="QE7"/>
-      <c r="QF7"/>
-      <c r="QG7"/>
-      <c r="QH7"/>
-      <c r="QI7"/>
-      <c r="QJ7"/>
-      <c r="QK7"/>
-      <c r="QL7"/>
-      <c r="QM7"/>
-      <c r="QN7"/>
-      <c r="QO7"/>
-      <c r="QP7"/>
-      <c r="QQ7"/>
-      <c r="QR7"/>
-      <c r="QS7"/>
-      <c r="QT7"/>
-      <c r="QU7"/>
-      <c r="QV7"/>
-      <c r="QW7"/>
-      <c r="QX7"/>
-      <c r="QY7"/>
-      <c r="QZ7"/>
-      <c r="RA7"/>
-      <c r="RB7"/>
-      <c r="RC7"/>
-      <c r="RD7"/>
-      <c r="RE7"/>
-      <c r="RF7"/>
-      <c r="RG7"/>
-      <c r="RH7"/>
-      <c r="RI7"/>
-      <c r="RJ7"/>
-      <c r="RK7"/>
-      <c r="RL7"/>
-      <c r="RM7"/>
-      <c r="RN7"/>
-      <c r="RO7"/>
-      <c r="RP7"/>
-      <c r="RQ7"/>
-      <c r="RR7"/>
-      <c r="RS7"/>
-      <c r="RT7"/>
-      <c r="RU7"/>
-      <c r="RV7"/>
-      <c r="RW7"/>
-      <c r="RX7"/>
-      <c r="RY7"/>
-      <c r="RZ7"/>
-      <c r="SA7"/>
-      <c r="SB7"/>
-      <c r="SC7"/>
-      <c r="SD7"/>
-      <c r="SE7"/>
-      <c r="SF7"/>
-      <c r="SG7"/>
-      <c r="SH7"/>
-      <c r="SI7"/>
-      <c r="SJ7"/>
-      <c r="SK7"/>
-      <c r="SL7"/>
-      <c r="SM7"/>
-      <c r="SN7"/>
-      <c r="SO7"/>
-      <c r="SP7"/>
-      <c r="SQ7"/>
-      <c r="SR7"/>
-      <c r="SS7"/>
-      <c r="ST7"/>
-      <c r="SU7"/>
-      <c r="SV7"/>
-      <c r="SW7"/>
-      <c r="SX7"/>
-      <c r="SY7"/>
-      <c r="SZ7"/>
-      <c r="TA7"/>
-      <c r="TB7"/>
-      <c r="TC7"/>
-      <c r="TD7"/>
-      <c r="TE7"/>
-      <c r="TF7"/>
-      <c r="TG7"/>
-      <c r="TH7"/>
-      <c r="TI7"/>
-      <c r="TJ7"/>
-      <c r="TK7"/>
-      <c r="TL7"/>
-      <c r="TM7"/>
-      <c r="TN7"/>
-      <c r="TO7"/>
-      <c r="TP7"/>
-      <c r="TQ7"/>
-      <c r="TR7"/>
-      <c r="TS7"/>
-      <c r="TT7"/>
-      <c r="TU7"/>
-      <c r="TV7"/>
-      <c r="TW7"/>
-      <c r="TX7"/>
-      <c r="TY7"/>
-      <c r="TZ7"/>
-      <c r="UA7"/>
-      <c r="UB7"/>
-      <c r="UC7"/>
-      <c r="UD7"/>
-      <c r="UE7"/>
-      <c r="UF7"/>
-      <c r="UG7"/>
-      <c r="UH7"/>
-      <c r="UI7"/>
-      <c r="UJ7"/>
-      <c r="UK7"/>
-      <c r="UL7"/>
-      <c r="UM7"/>
-      <c r="UN7"/>
-      <c r="UO7"/>
-      <c r="UP7"/>
-      <c r="UQ7"/>
-      <c r="UR7"/>
-      <c r="US7"/>
-      <c r="UT7"/>
-      <c r="UU7"/>
-      <c r="UV7"/>
-      <c r="UW7"/>
-      <c r="UX7"/>
-      <c r="UY7"/>
-      <c r="UZ7"/>
-      <c r="VA7"/>
-      <c r="VB7"/>
-      <c r="VC7"/>
-      <c r="VD7"/>
-      <c r="VE7"/>
-      <c r="VF7"/>
-      <c r="VG7"/>
-      <c r="VH7"/>
-      <c r="VI7"/>
-      <c r="VJ7"/>
-      <c r="VK7"/>
-      <c r="VL7"/>
-      <c r="VM7"/>
-      <c r="VN7"/>
-      <c r="VO7"/>
-      <c r="VP7"/>
-      <c r="VQ7"/>
-      <c r="VR7"/>
-      <c r="VS7"/>
-      <c r="VT7"/>
-      <c r="VU7"/>
-      <c r="VV7"/>
-      <c r="VW7"/>
-      <c r="VX7"/>
-      <c r="VY7"/>
-      <c r="VZ7"/>
-      <c r="WA7"/>
-      <c r="WB7"/>
-      <c r="WC7"/>
-      <c r="WD7"/>
-      <c r="WE7"/>
-      <c r="WF7"/>
-      <c r="WG7"/>
-      <c r="WH7"/>
-      <c r="WI7"/>
-      <c r="WJ7"/>
-      <c r="WK7"/>
-      <c r="WL7"/>
-      <c r="WM7"/>
-      <c r="WN7"/>
-      <c r="WO7"/>
-      <c r="WP7"/>
-      <c r="WQ7"/>
-      <c r="WR7"/>
-      <c r="WS7"/>
-      <c r="WT7"/>
-      <c r="WU7"/>
-      <c r="WV7"/>
-      <c r="WW7"/>
-      <c r="WX7"/>
-      <c r="WY7"/>
-      <c r="WZ7"/>
-      <c r="XA7"/>
-      <c r="XB7"/>
-      <c r="XC7"/>
-      <c r="XD7"/>
-      <c r="XE7"/>
-      <c r="XF7"/>
-      <c r="XG7"/>
-      <c r="XH7"/>
-      <c r="XI7"/>
-      <c r="XJ7"/>
-      <c r="XK7"/>
-      <c r="XL7"/>
-      <c r="XM7"/>
-      <c r="XN7"/>
-      <c r="XO7"/>
-      <c r="XP7"/>
-      <c r="XQ7"/>
-      <c r="XR7"/>
-      <c r="XS7"/>
-      <c r="XT7"/>
-      <c r="XU7"/>
-      <c r="XV7"/>
-      <c r="XW7"/>
-      <c r="XX7"/>
-      <c r="XY7"/>
-      <c r="XZ7"/>
-      <c r="YA7"/>
-      <c r="YB7"/>
-      <c r="YC7"/>
-      <c r="YD7"/>
-      <c r="YE7"/>
-      <c r="YF7"/>
-      <c r="YG7"/>
-      <c r="YH7"/>
-      <c r="YI7"/>
-      <c r="YJ7"/>
-      <c r="YK7"/>
-      <c r="YL7"/>
-      <c r="YM7"/>
-      <c r="YN7"/>
-      <c r="YO7"/>
-      <c r="YP7"/>
-      <c r="YQ7"/>
-      <c r="YR7"/>
-      <c r="YS7"/>
-      <c r="YT7"/>
-      <c r="YU7"/>
-      <c r="YV7"/>
-      <c r="YW7"/>
-      <c r="YX7"/>
-      <c r="YY7"/>
-      <c r="YZ7"/>
-      <c r="ZA7"/>
-      <c r="ZB7"/>
-      <c r="ZC7"/>
-      <c r="ZD7"/>
-      <c r="ZE7"/>
-      <c r="ZF7"/>
-      <c r="ZG7"/>
-      <c r="ZH7"/>
-      <c r="ZI7"/>
-      <c r="ZJ7"/>
-      <c r="ZK7"/>
-      <c r="ZL7"/>
-      <c r="ZM7"/>
-      <c r="ZN7"/>
-      <c r="ZO7"/>
-      <c r="ZP7"/>
-      <c r="ZQ7"/>
-      <c r="ZR7"/>
-      <c r="ZS7"/>
-      <c r="ZT7"/>
-      <c r="ZU7"/>
-      <c r="ZV7"/>
-      <c r="ZW7"/>
-      <c r="ZX7"/>
-      <c r="ZY7"/>
-      <c r="ZZ7"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="6" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
